--- a/QuantLibXL/Data/XLS/010_StartUp/020_Indexes/EurLibor.xlsx
+++ b/QuantLibXL/Data/XLS/010_StartUp/020_Indexes/EurLibor.xlsx
@@ -816,13 +816,15 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="Feuil1"/>
+      <sheetName val="Menu"/>
+      <sheetName val="Sheet1"/>
     </sheetNames>
     <definedNames>
       <definedName name="qlSerializationPath"/>
     </definedNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1137,7 +1139,7 @@
     <row r="1" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="15" t="str">
         <f>_xll.qlxlVersion(TRUE,Trigger)</f>
-        <v>QuantLibXL 1.2.0 - MS VC++ 9.0 - Multithreaded Dynamic Runtime library - Release Configuration - Jan 18 2013 12:11:06</v>
+        <v>QuantLibXL 1.3.0 - MS VC++ 9.0 - Multithreaded Dynamic Runtime library - Release Configuration - Nov  4 2013 11:55:45</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -1217,7 +1219,7 @@
       </c>
       <c r="D9" s="23" t="str">
         <f>[1]!qlSerializationPath(Trigger)</f>
-        <v>\\srv0001\risorse\WorkGroup\IMI_Workbooks\Production\QLXL_R01030x\Data\XML\010_StartUp\020_Indexes\</v>
+        <v>C:\Projects\quantlib\QuantLibXL\Data\XML\010_StartUp\020_Indexes\</v>
       </c>
       <c r="E9" s="12"/>
     </row>
@@ -1320,13 +1322,13 @@
         <f>PROPER(Currency)&amp;FamilyName&amp;".xml"</f>
         <v>EurLibor.xml</v>
       </c>
-      <c r="F5" s="51">
+      <c r="F5" s="51" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(F6:F20,SerializationPath&amp;FileName,FileOverwrite,Serialize),"---")</f>
-        <v>15</v>
+        <v>#NUM!</v>
       </c>
       <c r="G5" s="49" t="str">
-        <f>_xll.ohRangeRetrieveError(F5)</f>
-        <v/>
+        <f ca="1">_xll.ohRangeRetrieveError(F5)</f>
+        <v>ohObjectSave - Invalid parent path : C:\Projects\quantlib\QuantLibXL\Data\XML\010_StartUp\020_Indexes\EurLibor.xml</v>
       </c>
       <c r="H5" s="21"/>
     </row>
@@ -1344,7 +1346,7 @@
       </c>
       <c r="F6" s="53" t="str">
         <f>_xll.qlLibor($E6,Currency,$C6,Currency&amp;$D6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborON#0002</v>
+        <v>EurLiborON#0001</v>
       </c>
       <c r="G6" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(F6)</f>
@@ -1366,7 +1368,7 @@
       </c>
       <c r="F7" s="53" t="str">
         <f>_xll.qlLibor($E7,Currency,$C7,Currency&amp;$D7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSW#0002</v>
+        <v>EurLiborSW#0001</v>
       </c>
       <c r="G7" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(F7)</f>
@@ -1388,7 +1390,7 @@
       </c>
       <c r="F8" s="53" t="str">
         <f>_xll.qlLibor($E8,Currency,$C8,Currency&amp;$D8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLibor2W#0002</v>
+        <v>EurLibor2W#0001</v>
       </c>
       <c r="G8" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(F8)</f>
@@ -1410,7 +1412,7 @@
       </c>
       <c r="F9" s="53" t="str">
         <f>_xll.qlLibor($E9,Currency,$C9,Currency&amp;$D9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLibor1M#0002</v>
+        <v>EurLibor1M#0001</v>
       </c>
       <c r="G9" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(F9)</f>
@@ -1432,7 +1434,7 @@
       </c>
       <c r="F10" s="53" t="str">
         <f>_xll.qlLibor($E10,Currency,$C10,Currency&amp;$D10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLibor2M#0002</v>
+        <v>EurLibor2M#0001</v>
       </c>
       <c r="G10" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(F10)</f>
@@ -1454,7 +1456,7 @@
       </c>
       <c r="F11" s="53" t="str">
         <f>_xll.qlLibor($E11,Currency,$C11,Currency&amp;$D11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLibor3M#0002</v>
+        <v>EurLibor3M#0001</v>
       </c>
       <c r="G11" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(F11)</f>
@@ -1476,7 +1478,7 @@
       </c>
       <c r="F12" s="53" t="str">
         <f>_xll.qlLibor($E12,Currency,$C12,Currency&amp;$D12,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLibor4M#0002</v>
+        <v>EurLibor4M#0001</v>
       </c>
       <c r="G12" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(F12)</f>
@@ -1498,7 +1500,7 @@
       </c>
       <c r="F13" s="53" t="str">
         <f>_xll.qlLibor($E13,Currency,$C13,Currency&amp;$D13,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLibor5M#0002</v>
+        <v>EurLibor5M#0001</v>
       </c>
       <c r="G13" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(F13)</f>
@@ -1520,7 +1522,7 @@
       </c>
       <c r="F14" s="53" t="str">
         <f>_xll.qlLibor($E14,Currency,$C14,Currency&amp;$D14,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLibor6M#0002</v>
+        <v>EurLibor6M#0001</v>
       </c>
       <c r="G14" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(F14)</f>
@@ -1542,7 +1544,7 @@
       </c>
       <c r="F15" s="53" t="str">
         <f>_xll.qlLibor($E15,Currency,$C15,Currency&amp;$D15,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLibor7M#0002</v>
+        <v>EurLibor7M#0001</v>
       </c>
       <c r="G15" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(F15)</f>
@@ -1564,7 +1566,7 @@
       </c>
       <c r="F16" s="53" t="str">
         <f>_xll.qlLibor($E16,Currency,$C16,Currency&amp;$D16,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLibor8M#0002</v>
+        <v>EurLibor8M#0001</v>
       </c>
       <c r="G16" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(F16)</f>
@@ -1586,7 +1588,7 @@
       </c>
       <c r="F17" s="53" t="str">
         <f>_xll.qlLibor($E17,Currency,$C17,Currency&amp;$D17,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLibor9M#0002</v>
+        <v>EurLibor9M#0001</v>
       </c>
       <c r="G17" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(F17)</f>
@@ -1608,7 +1610,7 @@
       </c>
       <c r="F18" s="53" t="str">
         <f>_xll.qlLibor($E18,Currency,$C18,Currency&amp;$D18,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLibor10M#0002</v>
+        <v>EurLibor10M#0001</v>
       </c>
       <c r="G18" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(F18)</f>
@@ -1630,7 +1632,7 @@
       </c>
       <c r="F19" s="53" t="str">
         <f>_xll.qlLibor($E19,Currency,$C19,Currency&amp;$D19,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLibor11M#0002</v>
+        <v>EurLibor11M#0001</v>
       </c>
       <c r="G19" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(F19)</f>
@@ -1652,7 +1654,7 @@
       </c>
       <c r="F20" s="53" t="str">
         <f>_xll.qlLibor($E20,Currency,$C20,Currency&amp;$D20,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLibor1Y#0002</v>
+        <v>EurLibor1Y#0001</v>
       </c>
       <c r="G20" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(F20)</f>
@@ -1762,13 +1764,13 @@
         <f>PROPER(Currency)&amp;FamilyName&amp;FixingType&amp;".xml"</f>
         <v>EurLiborSwapIsdaFixA.xml</v>
       </c>
-      <c r="G6" s="34">
+      <c r="G6" s="34" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(G7:G66,SerializationPath&amp;FileName,FileOverwrite,Serialize),"---")</f>
-        <v>60</v>
+        <v>#NUM!</v>
       </c>
       <c r="H6" s="37" t="str">
-        <f>_xll.ohRangeRetrieveError(G6)</f>
-        <v/>
+        <f ca="1">_xll.ohRangeRetrieveError(G6)</f>
+        <v>ohObjectSave - Invalid parent path : C:\Projects\quantlib\QuantLibXL\Data\XML\010_StartUp\020_Indexes\EurLiborSwapIsdaFixA.xml</v>
       </c>
       <c r="I6" s="35"/>
     </row>
@@ -1789,7 +1791,7 @@
       </c>
       <c r="G7" s="41" t="str">
         <f>_xll.qlLiborSwap($F7,Currency,FixingType,$C7,Currency&amp;$D7,Currency&amp;$E7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixA1Y#0002</v>
+        <v>EurLiborSwapIsdaFixA1Y#0001</v>
       </c>
       <c r="H7" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G7)</f>
@@ -1814,7 +1816,7 @@
       </c>
       <c r="G8" s="41" t="str">
         <f>_xll.qlLiborSwap($F8,Currency,FixingType,$C8,Currency&amp;$D8,Currency&amp;$E8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixA2Y#0002</v>
+        <v>EurLiborSwapIsdaFixA2Y#0001</v>
       </c>
       <c r="H8" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G8)</f>
@@ -1839,7 +1841,7 @@
       </c>
       <c r="G9" s="41" t="str">
         <f>_xll.qlLiborSwap($F9,Currency,FixingType,$C9,Currency&amp;$D9,Currency&amp;$E9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixA3Y#0002</v>
+        <v>EurLiborSwapIsdaFixA3Y#0001</v>
       </c>
       <c r="H9" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G9)</f>
@@ -1864,7 +1866,7 @@
       </c>
       <c r="G10" s="41" t="str">
         <f>_xll.qlLiborSwap($F10,Currency,FixingType,$C10,Currency&amp;$D10,Currency&amp;$E10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixA4Y#0002</v>
+        <v>EurLiborSwapIsdaFixA4Y#0001</v>
       </c>
       <c r="H10" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G10)</f>
@@ -1889,7 +1891,7 @@
       </c>
       <c r="G11" s="41" t="str">
         <f>_xll.qlLiborSwap($F11,Currency,FixingType,$C11,Currency&amp;$D11,Currency&amp;$E11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixA5Y#0002</v>
+        <v>EurLiborSwapIsdaFixA5Y#0001</v>
       </c>
       <c r="H11" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G11)</f>
@@ -1914,7 +1916,7 @@
       </c>
       <c r="G12" s="41" t="str">
         <f>_xll.qlLiborSwap($F12,Currency,FixingType,$C12,Currency&amp;$D12,Currency&amp;$E12,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixA6Y#0002</v>
+        <v>EurLiborSwapIsdaFixA6Y#0001</v>
       </c>
       <c r="H12" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G12)</f>
@@ -1939,7 +1941,7 @@
       </c>
       <c r="G13" s="41" t="str">
         <f>_xll.qlLiborSwap($F13,Currency,FixingType,$C13,Currency&amp;$D13,Currency&amp;$E13,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixA7Y#0002</v>
+        <v>EurLiborSwapIsdaFixA7Y#0001</v>
       </c>
       <c r="H13" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G13)</f>
@@ -1964,7 +1966,7 @@
       </c>
       <c r="G14" s="41" t="str">
         <f>_xll.qlLiborSwap($F14,Currency,FixingType,$C14,Currency&amp;$D14,Currency&amp;$E14,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixA8Y#0002</v>
+        <v>EurLiborSwapIsdaFixA8Y#0001</v>
       </c>
       <c r="H14" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G14)</f>
@@ -1989,7 +1991,7 @@
       </c>
       <c r="G15" s="41" t="str">
         <f>_xll.qlLiborSwap($F15,Currency,FixingType,$C15,Currency&amp;$D15,Currency&amp;$E15,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixA9Y#0002</v>
+        <v>EurLiborSwapIsdaFixA9Y#0001</v>
       </c>
       <c r="H15" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G15)</f>
@@ -2014,7 +2016,7 @@
       </c>
       <c r="G16" s="41" t="str">
         <f>_xll.qlLiborSwap($F16,Currency,FixingType,$C16,Currency&amp;$D16,Currency&amp;$E16,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixA10Y#0002</v>
+        <v>EurLiborSwapIsdaFixA10Y#0001</v>
       </c>
       <c r="H16" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G16)</f>
@@ -2039,7 +2041,7 @@
       </c>
       <c r="G17" s="41" t="str">
         <f>_xll.qlLiborSwap($F17,Currency,FixingType,$C17,Currency&amp;$D17,Currency&amp;$E17,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixA11Y#0002</v>
+        <v>EurLiborSwapIsdaFixA11Y#0001</v>
       </c>
       <c r="H17" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G17)</f>
@@ -2064,7 +2066,7 @@
       </c>
       <c r="G18" s="41" t="str">
         <f>_xll.qlLiborSwap($F18,Currency,FixingType,$C18,Currency&amp;$D18,Currency&amp;$E18,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixA12Y#0002</v>
+        <v>EurLiborSwapIsdaFixA12Y#0001</v>
       </c>
       <c r="H18" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G18)</f>
@@ -2089,7 +2091,7 @@
       </c>
       <c r="G19" s="41" t="str">
         <f>_xll.qlLiborSwap($F19,Currency,FixingType,$C19,Currency&amp;$D19,Currency&amp;$E19,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixA13Y#0002</v>
+        <v>EurLiborSwapIsdaFixA13Y#0001</v>
       </c>
       <c r="H19" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G19)</f>
@@ -2114,7 +2116,7 @@
       </c>
       <c r="G20" s="41" t="str">
         <f>_xll.qlLiborSwap($F20,Currency,FixingType,$C20,Currency&amp;$D20,Currency&amp;$E20,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixA14Y#0002</v>
+        <v>EurLiborSwapIsdaFixA14Y#0001</v>
       </c>
       <c r="H20" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G20)</f>
@@ -2139,7 +2141,7 @@
       </c>
       <c r="G21" s="41" t="str">
         <f>_xll.qlLiborSwap($F21,Currency,FixingType,$C21,Currency&amp;$D21,Currency&amp;$E21,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixA15Y#0002</v>
+        <v>EurLiborSwapIsdaFixA15Y#0001</v>
       </c>
       <c r="H21" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G21)</f>
@@ -2164,7 +2166,7 @@
       </c>
       <c r="G22" s="41" t="str">
         <f>_xll.qlLiborSwap($F22,Currency,FixingType,$C22,Currency&amp;$D22,Currency&amp;$E22,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixA16Y#0002</v>
+        <v>EurLiborSwapIsdaFixA16Y#0001</v>
       </c>
       <c r="H22" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G22)</f>
@@ -2189,7 +2191,7 @@
       </c>
       <c r="G23" s="41" t="str">
         <f>_xll.qlLiborSwap($F23,Currency,FixingType,$C23,Currency&amp;$D23,Currency&amp;$E23,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixA17Y#0002</v>
+        <v>EurLiborSwapIsdaFixA17Y#0001</v>
       </c>
       <c r="H23" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G23)</f>
@@ -2214,7 +2216,7 @@
       </c>
       <c r="G24" s="41" t="str">
         <f>_xll.qlLiborSwap($F24,Currency,FixingType,$C24,Currency&amp;$D24,Currency&amp;$E24,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixA18Y#0002</v>
+        <v>EurLiborSwapIsdaFixA18Y#0001</v>
       </c>
       <c r="H24" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G24)</f>
@@ -2239,7 +2241,7 @@
       </c>
       <c r="G25" s="41" t="str">
         <f>_xll.qlLiborSwap($F25,Currency,FixingType,$C25,Currency&amp;$D25,Currency&amp;$E25,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixA19Y#0002</v>
+        <v>EurLiborSwapIsdaFixA19Y#0001</v>
       </c>
       <c r="H25" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G25)</f>
@@ -2264,7 +2266,7 @@
       </c>
       <c r="G26" s="41" t="str">
         <f>_xll.qlLiborSwap($F26,Currency,FixingType,$C26,Currency&amp;$D26,Currency&amp;$E26,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixA20Y#0002</v>
+        <v>EurLiborSwapIsdaFixA20Y#0001</v>
       </c>
       <c r="H26" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G26)</f>
@@ -2289,7 +2291,7 @@
       </c>
       <c r="G27" s="41" t="str">
         <f>_xll.qlLiborSwap($F27,Currency,FixingType,$C27,Currency&amp;$D27,Currency&amp;$E27,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixA21Y#0002</v>
+        <v>EurLiborSwapIsdaFixA21Y#0001</v>
       </c>
       <c r="H27" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G27)</f>
@@ -2314,7 +2316,7 @@
       </c>
       <c r="G28" s="41" t="str">
         <f>_xll.qlLiborSwap($F28,Currency,FixingType,$C28,Currency&amp;$D28,Currency&amp;$E28,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixA22Y#0002</v>
+        <v>EurLiborSwapIsdaFixA22Y#0001</v>
       </c>
       <c r="H28" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G28)</f>
@@ -2339,7 +2341,7 @@
       </c>
       <c r="G29" s="41" t="str">
         <f>_xll.qlLiborSwap($F29,Currency,FixingType,$C29,Currency&amp;$D29,Currency&amp;$E29,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixA23Y#0002</v>
+        <v>EurLiborSwapIsdaFixA23Y#0001</v>
       </c>
       <c r="H29" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G29)</f>
@@ -2364,7 +2366,7 @@
       </c>
       <c r="G30" s="41" t="str">
         <f>_xll.qlLiborSwap($F30,Currency,FixingType,$C30,Currency&amp;$D30,Currency&amp;$E30,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixA24Y#0002</v>
+        <v>EurLiborSwapIsdaFixA24Y#0001</v>
       </c>
       <c r="H30" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G30)</f>
@@ -2389,7 +2391,7 @@
       </c>
       <c r="G31" s="41" t="str">
         <f>_xll.qlLiborSwap($F31,Currency,FixingType,$C31,Currency&amp;$D31,Currency&amp;$E31,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixA25Y#0002</v>
+        <v>EurLiborSwapIsdaFixA25Y#0001</v>
       </c>
       <c r="H31" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G31)</f>
@@ -2414,7 +2416,7 @@
       </c>
       <c r="G32" s="41" t="str">
         <f>_xll.qlLiborSwap($F32,Currency,FixingType,$C32,Currency&amp;$D32,Currency&amp;$E32,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixA26Y#0002</v>
+        <v>EurLiborSwapIsdaFixA26Y#0001</v>
       </c>
       <c r="H32" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G32)</f>
@@ -2439,7 +2441,7 @@
       </c>
       <c r="G33" s="41" t="str">
         <f>_xll.qlLiborSwap($F33,Currency,FixingType,$C33,Currency&amp;$D33,Currency&amp;$E33,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixA27Y#0002</v>
+        <v>EurLiborSwapIsdaFixA27Y#0001</v>
       </c>
       <c r="H33" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G33)</f>
@@ -2464,7 +2466,7 @@
       </c>
       <c r="G34" s="41" t="str">
         <f>_xll.qlLiborSwap($F34,Currency,FixingType,$C34,Currency&amp;$D34,Currency&amp;$E34,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixA28Y#0002</v>
+        <v>EurLiborSwapIsdaFixA28Y#0001</v>
       </c>
       <c r="H34" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G34)</f>
@@ -2489,7 +2491,7 @@
       </c>
       <c r="G35" s="41" t="str">
         <f>_xll.qlLiborSwap($F35,Currency,FixingType,$C35,Currency&amp;$D35,Currency&amp;$E35,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixA29Y#0002</v>
+        <v>EurLiborSwapIsdaFixA29Y#0001</v>
       </c>
       <c r="H35" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G35)</f>
@@ -2514,7 +2516,7 @@
       </c>
       <c r="G36" s="41" t="str">
         <f>_xll.qlLiborSwap($F36,Currency,FixingType,$C36,Currency&amp;$D36,Currency&amp;$E36,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixA30Y#0002</v>
+        <v>EurLiborSwapIsdaFixA30Y#0001</v>
       </c>
       <c r="H36" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G36)</f>
@@ -2539,7 +2541,7 @@
       </c>
       <c r="G37" s="41" t="str">
         <f>_xll.qlLiborSwap($F37,Currency,FixingType,$C37,Currency&amp;$D37,Currency&amp;$E37,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixA31Y#0002</v>
+        <v>EurLiborSwapIsdaFixA31Y#0001</v>
       </c>
       <c r="H37" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G37)</f>
@@ -2564,7 +2566,7 @@
       </c>
       <c r="G38" s="41" t="str">
         <f>_xll.qlLiborSwap($F38,Currency,FixingType,$C38,Currency&amp;$D38,Currency&amp;$E38,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixA32Y#0002</v>
+        <v>EurLiborSwapIsdaFixA32Y#0001</v>
       </c>
       <c r="H38" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G38)</f>
@@ -2589,7 +2591,7 @@
       </c>
       <c r="G39" s="41" t="str">
         <f>_xll.qlLiborSwap($F39,Currency,FixingType,$C39,Currency&amp;$D39,Currency&amp;$E39,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixA33Y#0002</v>
+        <v>EurLiborSwapIsdaFixA33Y#0001</v>
       </c>
       <c r="H39" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G39)</f>
@@ -2614,7 +2616,7 @@
       </c>
       <c r="G40" s="41" t="str">
         <f>_xll.qlLiborSwap($F40,Currency,FixingType,$C40,Currency&amp;$D40,Currency&amp;$E40,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixA34Y#0002</v>
+        <v>EurLiborSwapIsdaFixA34Y#0001</v>
       </c>
       <c r="H40" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G40)</f>
@@ -2639,7 +2641,7 @@
       </c>
       <c r="G41" s="41" t="str">
         <f>_xll.qlLiborSwap($F41,Currency,FixingType,$C41,Currency&amp;$D41,Currency&amp;$E41,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixA35Y#0002</v>
+        <v>EurLiborSwapIsdaFixA35Y#0001</v>
       </c>
       <c r="H41" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G41)</f>
@@ -2664,7 +2666,7 @@
       </c>
       <c r="G42" s="41" t="str">
         <f>_xll.qlLiborSwap($F42,Currency,FixingType,$C42,Currency&amp;$D42,Currency&amp;$E42,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixA36Y#0002</v>
+        <v>EurLiborSwapIsdaFixA36Y#0001</v>
       </c>
       <c r="H42" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G42)</f>
@@ -2689,7 +2691,7 @@
       </c>
       <c r="G43" s="41" t="str">
         <f>_xll.qlLiborSwap($F43,Currency,FixingType,$C43,Currency&amp;$D43,Currency&amp;$E43,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixA37Y#0002</v>
+        <v>EurLiborSwapIsdaFixA37Y#0001</v>
       </c>
       <c r="H43" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G43)</f>
@@ -2714,7 +2716,7 @@
       </c>
       <c r="G44" s="41" t="str">
         <f>_xll.qlLiborSwap($F44,Currency,FixingType,$C44,Currency&amp;$D44,Currency&amp;$E44,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixA38Y#0002</v>
+        <v>EurLiborSwapIsdaFixA38Y#0001</v>
       </c>
       <c r="H44" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G44)</f>
@@ -2739,7 +2741,7 @@
       </c>
       <c r="G45" s="41" t="str">
         <f>_xll.qlLiborSwap($F45,Currency,FixingType,$C45,Currency&amp;$D45,Currency&amp;$E45,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixA39Y#0002</v>
+        <v>EurLiborSwapIsdaFixA39Y#0001</v>
       </c>
       <c r="H45" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G45)</f>
@@ -2764,7 +2766,7 @@
       </c>
       <c r="G46" s="41" t="str">
         <f>_xll.qlLiborSwap($F46,Currency,FixingType,$C46,Currency&amp;$D46,Currency&amp;$E46,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixA40Y#0002</v>
+        <v>EurLiborSwapIsdaFixA40Y#0001</v>
       </c>
       <c r="H46" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G46)</f>
@@ -2789,7 +2791,7 @@
       </c>
       <c r="G47" s="41" t="str">
         <f>_xll.qlLiborSwap($F47,Currency,FixingType,$C47,Currency&amp;$D47,Currency&amp;$E47,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixA41Y#0002</v>
+        <v>EurLiborSwapIsdaFixA41Y#0001</v>
       </c>
       <c r="H47" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G47)</f>
@@ -2814,7 +2816,7 @@
       </c>
       <c r="G48" s="41" t="str">
         <f>_xll.qlLiborSwap($F48,Currency,FixingType,$C48,Currency&amp;$D48,Currency&amp;$E48,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixA42Y#0002</v>
+        <v>EurLiborSwapIsdaFixA42Y#0001</v>
       </c>
       <c r="H48" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G48)</f>
@@ -2839,7 +2841,7 @@
       </c>
       <c r="G49" s="41" t="str">
         <f>_xll.qlLiborSwap($F49,Currency,FixingType,$C49,Currency&amp;$D49,Currency&amp;$E49,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixA43Y#0002</v>
+        <v>EurLiborSwapIsdaFixA43Y#0001</v>
       </c>
       <c r="H49" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G49)</f>
@@ -2864,7 +2866,7 @@
       </c>
       <c r="G50" s="41" t="str">
         <f>_xll.qlLiborSwap($F50,Currency,FixingType,$C50,Currency&amp;$D50,Currency&amp;$E50,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixA44Y#0002</v>
+        <v>EurLiborSwapIsdaFixA44Y#0001</v>
       </c>
       <c r="H50" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G50)</f>
@@ -2889,7 +2891,7 @@
       </c>
       <c r="G51" s="41" t="str">
         <f>_xll.qlLiborSwap($F51,Currency,FixingType,$C51,Currency&amp;$D51,Currency&amp;$E51,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixA45Y#0002</v>
+        <v>EurLiborSwapIsdaFixA45Y#0001</v>
       </c>
       <c r="H51" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G51)</f>
@@ -2914,7 +2916,7 @@
       </c>
       <c r="G52" s="41" t="str">
         <f>_xll.qlLiborSwap($F52,Currency,FixingType,$C52,Currency&amp;$D52,Currency&amp;$E52,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixA46Y#0002</v>
+        <v>EurLiborSwapIsdaFixA46Y#0001</v>
       </c>
       <c r="H52" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G52)</f>
@@ -2939,7 +2941,7 @@
       </c>
       <c r="G53" s="41" t="str">
         <f>_xll.qlLiborSwap($F53,Currency,FixingType,$C53,Currency&amp;$D53,Currency&amp;$E53,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixA47Y#0002</v>
+        <v>EurLiborSwapIsdaFixA47Y#0001</v>
       </c>
       <c r="H53" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G53)</f>
@@ -2964,7 +2966,7 @@
       </c>
       <c r="G54" s="41" t="str">
         <f>_xll.qlLiborSwap($F54,Currency,FixingType,$C54,Currency&amp;$D54,Currency&amp;$E54,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixA48Y#0002</v>
+        <v>EurLiborSwapIsdaFixA48Y#0001</v>
       </c>
       <c r="H54" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G54)</f>
@@ -2989,7 +2991,7 @@
       </c>
       <c r="G55" s="41" t="str">
         <f>_xll.qlLiborSwap($F55,Currency,FixingType,$C55,Currency&amp;$D55,Currency&amp;$E55,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixA49Y#0002</v>
+        <v>EurLiborSwapIsdaFixA49Y#0001</v>
       </c>
       <c r="H55" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G55)</f>
@@ -3014,7 +3016,7 @@
       </c>
       <c r="G56" s="41" t="str">
         <f>_xll.qlLiborSwap($F56,Currency,FixingType,$C56,Currency&amp;$D56,Currency&amp;$E56,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixA50Y#0002</v>
+        <v>EurLiborSwapIsdaFixA50Y#0001</v>
       </c>
       <c r="H56" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G56)</f>
@@ -3039,7 +3041,7 @@
       </c>
       <c r="G57" s="41" t="str">
         <f>_xll.qlLiborSwap($F57,Currency,FixingType,$C57,Currency&amp;$D57,Currency&amp;$E57,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixA51Y#0002</v>
+        <v>EurLiborSwapIsdaFixA51Y#0001</v>
       </c>
       <c r="H57" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G57)</f>
@@ -3064,7 +3066,7 @@
       </c>
       <c r="G58" s="41" t="str">
         <f>_xll.qlLiborSwap($F58,Currency,FixingType,$C58,Currency&amp;$D58,Currency&amp;$E58,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixA52Y#0002</v>
+        <v>EurLiborSwapIsdaFixA52Y#0001</v>
       </c>
       <c r="H58" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G58)</f>
@@ -3089,7 +3091,7 @@
       </c>
       <c r="G59" s="41" t="str">
         <f>_xll.qlLiborSwap($F59,Currency,FixingType,$C59,Currency&amp;$D59,Currency&amp;$E59,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixA53Y#0002</v>
+        <v>EurLiborSwapIsdaFixA53Y#0001</v>
       </c>
       <c r="H59" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G59)</f>
@@ -3114,7 +3116,7 @@
       </c>
       <c r="G60" s="41" t="str">
         <f>_xll.qlLiborSwap($F60,Currency,FixingType,$C60,Currency&amp;$D60,Currency&amp;$E60,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixA54Y#0002</v>
+        <v>EurLiborSwapIsdaFixA54Y#0001</v>
       </c>
       <c r="H60" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G60)</f>
@@ -3139,7 +3141,7 @@
       </c>
       <c r="G61" s="41" t="str">
         <f>_xll.qlLiborSwap($F61,Currency,FixingType,$C61,Currency&amp;$D61,Currency&amp;$E61,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixA55Y#0002</v>
+        <v>EurLiborSwapIsdaFixA55Y#0001</v>
       </c>
       <c r="H61" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G61)</f>
@@ -3164,7 +3166,7 @@
       </c>
       <c r="G62" s="41" t="str">
         <f>_xll.qlLiborSwap($F62,Currency,FixingType,$C62,Currency&amp;$D62,Currency&amp;$E62,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixA56Y#0002</v>
+        <v>EurLiborSwapIsdaFixA56Y#0001</v>
       </c>
       <c r="H62" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G62)</f>
@@ -3189,7 +3191,7 @@
       </c>
       <c r="G63" s="41" t="str">
         <f>_xll.qlLiborSwap($F63,Currency,FixingType,$C63,Currency&amp;$D63,Currency&amp;$E63,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixA57Y#0002</v>
+        <v>EurLiborSwapIsdaFixA57Y#0001</v>
       </c>
       <c r="H63" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G63)</f>
@@ -3214,7 +3216,7 @@
       </c>
       <c r="G64" s="41" t="str">
         <f>_xll.qlLiborSwap($F64,Currency,FixingType,$C64,Currency&amp;$D64,Currency&amp;$E64,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixA58Y#0002</v>
+        <v>EurLiborSwapIsdaFixA58Y#0001</v>
       </c>
       <c r="H64" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G64)</f>
@@ -3239,7 +3241,7 @@
       </c>
       <c r="G65" s="41" t="str">
         <f>_xll.qlLiborSwap($F65,Currency,FixingType,$C65,Currency&amp;$D65,Currency&amp;$E65,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixA59Y#0002</v>
+        <v>EurLiborSwapIsdaFixA59Y#0001</v>
       </c>
       <c r="H65" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G65)</f>
@@ -3264,7 +3266,7 @@
       </c>
       <c r="G66" s="41" t="str">
         <f>_xll.qlLiborSwap($F66,Currency,FixingType,$C66,Currency&amp;$D66,Currency&amp;$E66,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixA60Y#0002</v>
+        <v>EurLiborSwapIsdaFixA60Y#0001</v>
       </c>
       <c r="H66" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G66)</f>
@@ -3376,13 +3378,13 @@
         <f>PROPER(Currency)&amp;FamilyName&amp;FixingType&amp;".xml"</f>
         <v>EurLiborSwapIsdaFixB.xml</v>
       </c>
-      <c r="G6" s="34">
+      <c r="G6" s="34" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(G7:G66,SerializationPath&amp;FileName,FileOverwrite,Serialize),"---")</f>
-        <v>60</v>
+        <v>#NUM!</v>
       </c>
       <c r="H6" s="37" t="str">
-        <f>_xll.ohRangeRetrieveError(G6)</f>
-        <v/>
+        <f ca="1">_xll.ohRangeRetrieveError(G6)</f>
+        <v>ohObjectSave - Invalid parent path : C:\Projects\quantlib\QuantLibXL\Data\XML\010_StartUp\020_Indexes\EurLiborSwapIsdaFixB.xml</v>
       </c>
       <c r="I6" s="35"/>
     </row>
@@ -3403,7 +3405,7 @@
       </c>
       <c r="G7" s="41" t="str">
         <f>_xll.qlLiborSwap($F7,Currency,FixingType,$C7,Currency&amp;$D7,Currency&amp;$E7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixB1Y#0002</v>
+        <v>EurLiborSwapIsdaFixB1Y#0001</v>
       </c>
       <c r="H7" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G7)</f>
@@ -3428,7 +3430,7 @@
       </c>
       <c r="G8" s="41" t="str">
         <f>_xll.qlLiborSwap($F8,Currency,FixingType,$C8,Currency&amp;$D8,Currency&amp;$E8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixB2Y#0002</v>
+        <v>EurLiborSwapIsdaFixB2Y#0001</v>
       </c>
       <c r="H8" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G8)</f>
@@ -3453,7 +3455,7 @@
       </c>
       <c r="G9" s="41" t="str">
         <f>_xll.qlLiborSwap($F9,Currency,FixingType,$C9,Currency&amp;$D9,Currency&amp;$E9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixB3Y#0002</v>
+        <v>EurLiborSwapIsdaFixB3Y#0001</v>
       </c>
       <c r="H9" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G9)</f>
@@ -3478,7 +3480,7 @@
       </c>
       <c r="G10" s="41" t="str">
         <f>_xll.qlLiborSwap($F10,Currency,FixingType,$C10,Currency&amp;$D10,Currency&amp;$E10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixB4Y#0002</v>
+        <v>EurLiborSwapIsdaFixB4Y#0001</v>
       </c>
       <c r="H10" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G10)</f>
@@ -3503,7 +3505,7 @@
       </c>
       <c r="G11" s="41" t="str">
         <f>_xll.qlLiborSwap($F11,Currency,FixingType,$C11,Currency&amp;$D11,Currency&amp;$E11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixB5Y#0002</v>
+        <v>EurLiborSwapIsdaFixB5Y#0001</v>
       </c>
       <c r="H11" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G11)</f>
@@ -3528,7 +3530,7 @@
       </c>
       <c r="G12" s="41" t="str">
         <f>_xll.qlLiborSwap($F12,Currency,FixingType,$C12,Currency&amp;$D12,Currency&amp;$E12,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixB6Y#0002</v>
+        <v>EurLiborSwapIsdaFixB6Y#0001</v>
       </c>
       <c r="H12" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G12)</f>
@@ -3553,7 +3555,7 @@
       </c>
       <c r="G13" s="41" t="str">
         <f>_xll.qlLiborSwap($F13,Currency,FixingType,$C13,Currency&amp;$D13,Currency&amp;$E13,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixB7Y#0002</v>
+        <v>EurLiborSwapIsdaFixB7Y#0001</v>
       </c>
       <c r="H13" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G13)</f>
@@ -3578,7 +3580,7 @@
       </c>
       <c r="G14" s="41" t="str">
         <f>_xll.qlLiborSwap($F14,Currency,FixingType,$C14,Currency&amp;$D14,Currency&amp;$E14,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixB8Y#0002</v>
+        <v>EurLiborSwapIsdaFixB8Y#0001</v>
       </c>
       <c r="H14" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G14)</f>
@@ -3603,7 +3605,7 @@
       </c>
       <c r="G15" s="41" t="str">
         <f>_xll.qlLiborSwap($F15,Currency,FixingType,$C15,Currency&amp;$D15,Currency&amp;$E15,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixB9Y#0002</v>
+        <v>EurLiborSwapIsdaFixB9Y#0001</v>
       </c>
       <c r="H15" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G15)</f>
@@ -3628,7 +3630,7 @@
       </c>
       <c r="G16" s="41" t="str">
         <f>_xll.qlLiborSwap($F16,Currency,FixingType,$C16,Currency&amp;$D16,Currency&amp;$E16,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixB10Y#0002</v>
+        <v>EurLiborSwapIsdaFixB10Y#0001</v>
       </c>
       <c r="H16" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G16)</f>
@@ -3653,7 +3655,7 @@
       </c>
       <c r="G17" s="41" t="str">
         <f>_xll.qlLiborSwap($F17,Currency,FixingType,$C17,Currency&amp;$D17,Currency&amp;$E17,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixB11Y#0002</v>
+        <v>EurLiborSwapIsdaFixB11Y#0001</v>
       </c>
       <c r="H17" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G17)</f>
@@ -3678,7 +3680,7 @@
       </c>
       <c r="G18" s="41" t="str">
         <f>_xll.qlLiborSwap($F18,Currency,FixingType,$C18,Currency&amp;$D18,Currency&amp;$E18,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixB12Y#0002</v>
+        <v>EurLiborSwapIsdaFixB12Y#0001</v>
       </c>
       <c r="H18" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G18)</f>
@@ -3703,7 +3705,7 @@
       </c>
       <c r="G19" s="41" t="str">
         <f>_xll.qlLiborSwap($F19,Currency,FixingType,$C19,Currency&amp;$D19,Currency&amp;$E19,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixB13Y#0002</v>
+        <v>EurLiborSwapIsdaFixB13Y#0001</v>
       </c>
       <c r="H19" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G19)</f>
@@ -3728,7 +3730,7 @@
       </c>
       <c r="G20" s="41" t="str">
         <f>_xll.qlLiborSwap($F20,Currency,FixingType,$C20,Currency&amp;$D20,Currency&amp;$E20,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixB14Y#0002</v>
+        <v>EurLiborSwapIsdaFixB14Y#0001</v>
       </c>
       <c r="H20" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G20)</f>
@@ -3753,7 +3755,7 @@
       </c>
       <c r="G21" s="41" t="str">
         <f>_xll.qlLiborSwap($F21,Currency,FixingType,$C21,Currency&amp;$D21,Currency&amp;$E21,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixB15Y#0002</v>
+        <v>EurLiborSwapIsdaFixB15Y#0001</v>
       </c>
       <c r="H21" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G21)</f>
@@ -3778,7 +3780,7 @@
       </c>
       <c r="G22" s="41" t="str">
         <f>_xll.qlLiborSwap($F22,Currency,FixingType,$C22,Currency&amp;$D22,Currency&amp;$E22,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixB16Y#0002</v>
+        <v>EurLiborSwapIsdaFixB16Y#0001</v>
       </c>
       <c r="H22" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G22)</f>
@@ -3803,7 +3805,7 @@
       </c>
       <c r="G23" s="41" t="str">
         <f>_xll.qlLiborSwap($F23,Currency,FixingType,$C23,Currency&amp;$D23,Currency&amp;$E23,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixB17Y#0002</v>
+        <v>EurLiborSwapIsdaFixB17Y#0001</v>
       </c>
       <c r="H23" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G23)</f>
@@ -3828,7 +3830,7 @@
       </c>
       <c r="G24" s="41" t="str">
         <f>_xll.qlLiborSwap($F24,Currency,FixingType,$C24,Currency&amp;$D24,Currency&amp;$E24,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixB18Y#0002</v>
+        <v>EurLiborSwapIsdaFixB18Y#0001</v>
       </c>
       <c r="H24" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G24)</f>
@@ -3853,7 +3855,7 @@
       </c>
       <c r="G25" s="41" t="str">
         <f>_xll.qlLiborSwap($F25,Currency,FixingType,$C25,Currency&amp;$D25,Currency&amp;$E25,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixB19Y#0002</v>
+        <v>EurLiborSwapIsdaFixB19Y#0001</v>
       </c>
       <c r="H25" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G25)</f>
@@ -3878,7 +3880,7 @@
       </c>
       <c r="G26" s="41" t="str">
         <f>_xll.qlLiborSwap($F26,Currency,FixingType,$C26,Currency&amp;$D26,Currency&amp;$E26,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixB20Y#0002</v>
+        <v>EurLiborSwapIsdaFixB20Y#0001</v>
       </c>
       <c r="H26" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G26)</f>
@@ -3903,7 +3905,7 @@
       </c>
       <c r="G27" s="41" t="str">
         <f>_xll.qlLiborSwap($F27,Currency,FixingType,$C27,Currency&amp;$D27,Currency&amp;$E27,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixB21Y#0002</v>
+        <v>EurLiborSwapIsdaFixB21Y#0001</v>
       </c>
       <c r="H27" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G27)</f>
@@ -3928,7 +3930,7 @@
       </c>
       <c r="G28" s="41" t="str">
         <f>_xll.qlLiborSwap($F28,Currency,FixingType,$C28,Currency&amp;$D28,Currency&amp;$E28,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixB22Y#0002</v>
+        <v>EurLiborSwapIsdaFixB22Y#0001</v>
       </c>
       <c r="H28" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G28)</f>
@@ -3953,7 +3955,7 @@
       </c>
       <c r="G29" s="41" t="str">
         <f>_xll.qlLiborSwap($F29,Currency,FixingType,$C29,Currency&amp;$D29,Currency&amp;$E29,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixB23Y#0002</v>
+        <v>EurLiborSwapIsdaFixB23Y#0001</v>
       </c>
       <c r="H29" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G29)</f>
@@ -3978,7 +3980,7 @@
       </c>
       <c r="G30" s="41" t="str">
         <f>_xll.qlLiborSwap($F30,Currency,FixingType,$C30,Currency&amp;$D30,Currency&amp;$E30,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixB24Y#0002</v>
+        <v>EurLiborSwapIsdaFixB24Y#0001</v>
       </c>
       <c r="H30" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G30)</f>
@@ -4003,7 +4005,7 @@
       </c>
       <c r="G31" s="41" t="str">
         <f>_xll.qlLiborSwap($F31,Currency,FixingType,$C31,Currency&amp;$D31,Currency&amp;$E31,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixB25Y#0002</v>
+        <v>EurLiborSwapIsdaFixB25Y#0001</v>
       </c>
       <c r="H31" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G31)</f>
@@ -4028,7 +4030,7 @@
       </c>
       <c r="G32" s="41" t="str">
         <f>_xll.qlLiborSwap($F32,Currency,FixingType,$C32,Currency&amp;$D32,Currency&amp;$E32,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixB26Y#0002</v>
+        <v>EurLiborSwapIsdaFixB26Y#0001</v>
       </c>
       <c r="H32" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G32)</f>
@@ -4053,7 +4055,7 @@
       </c>
       <c r="G33" s="41" t="str">
         <f>_xll.qlLiborSwap($F33,Currency,FixingType,$C33,Currency&amp;$D33,Currency&amp;$E33,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixB27Y#0002</v>
+        <v>EurLiborSwapIsdaFixB27Y#0001</v>
       </c>
       <c r="H33" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G33)</f>
@@ -4078,7 +4080,7 @@
       </c>
       <c r="G34" s="41" t="str">
         <f>_xll.qlLiborSwap($F34,Currency,FixingType,$C34,Currency&amp;$D34,Currency&amp;$E34,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixB28Y#0002</v>
+        <v>EurLiborSwapIsdaFixB28Y#0001</v>
       </c>
       <c r="H34" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G34)</f>
@@ -4103,7 +4105,7 @@
       </c>
       <c r="G35" s="41" t="str">
         <f>_xll.qlLiborSwap($F35,Currency,FixingType,$C35,Currency&amp;$D35,Currency&amp;$E35,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixB29Y#0002</v>
+        <v>EurLiborSwapIsdaFixB29Y#0001</v>
       </c>
       <c r="H35" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G35)</f>
@@ -4128,7 +4130,7 @@
       </c>
       <c r="G36" s="41" t="str">
         <f>_xll.qlLiborSwap($F36,Currency,FixingType,$C36,Currency&amp;$D36,Currency&amp;$E36,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixB30Y#0002</v>
+        <v>EurLiborSwapIsdaFixB30Y#0001</v>
       </c>
       <c r="H36" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G36)</f>
@@ -4153,7 +4155,7 @@
       </c>
       <c r="G37" s="41" t="str">
         <f>_xll.qlLiborSwap($F37,Currency,FixingType,$C37,Currency&amp;$D37,Currency&amp;$E37,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixB31Y#0002</v>
+        <v>EurLiborSwapIsdaFixB31Y#0001</v>
       </c>
       <c r="H37" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G37)</f>
@@ -4178,7 +4180,7 @@
       </c>
       <c r="G38" s="41" t="str">
         <f>_xll.qlLiborSwap($F38,Currency,FixingType,$C38,Currency&amp;$D38,Currency&amp;$E38,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixB32Y#0002</v>
+        <v>EurLiborSwapIsdaFixB32Y#0001</v>
       </c>
       <c r="H38" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G38)</f>
@@ -4203,7 +4205,7 @@
       </c>
       <c r="G39" s="41" t="str">
         <f>_xll.qlLiborSwap($F39,Currency,FixingType,$C39,Currency&amp;$D39,Currency&amp;$E39,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixB33Y#0002</v>
+        <v>EurLiborSwapIsdaFixB33Y#0001</v>
       </c>
       <c r="H39" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G39)</f>
@@ -4228,7 +4230,7 @@
       </c>
       <c r="G40" s="41" t="str">
         <f>_xll.qlLiborSwap($F40,Currency,FixingType,$C40,Currency&amp;$D40,Currency&amp;$E40,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixB34Y#0002</v>
+        <v>EurLiborSwapIsdaFixB34Y#0001</v>
       </c>
       <c r="H40" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G40)</f>
@@ -4253,7 +4255,7 @@
       </c>
       <c r="G41" s="41" t="str">
         <f>_xll.qlLiborSwap($F41,Currency,FixingType,$C41,Currency&amp;$D41,Currency&amp;$E41,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixB35Y#0002</v>
+        <v>EurLiborSwapIsdaFixB35Y#0001</v>
       </c>
       <c r="H41" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G41)</f>
@@ -4278,7 +4280,7 @@
       </c>
       <c r="G42" s="41" t="str">
         <f>_xll.qlLiborSwap($F42,Currency,FixingType,$C42,Currency&amp;$D42,Currency&amp;$E42,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixB36Y#0002</v>
+        <v>EurLiborSwapIsdaFixB36Y#0001</v>
       </c>
       <c r="H42" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G42)</f>
@@ -4303,7 +4305,7 @@
       </c>
       <c r="G43" s="41" t="str">
         <f>_xll.qlLiborSwap($F43,Currency,FixingType,$C43,Currency&amp;$D43,Currency&amp;$E43,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixB37Y#0002</v>
+        <v>EurLiborSwapIsdaFixB37Y#0001</v>
       </c>
       <c r="H43" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G43)</f>
@@ -4328,7 +4330,7 @@
       </c>
       <c r="G44" s="41" t="str">
         <f>_xll.qlLiborSwap($F44,Currency,FixingType,$C44,Currency&amp;$D44,Currency&amp;$E44,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixB38Y#0002</v>
+        <v>EurLiborSwapIsdaFixB38Y#0001</v>
       </c>
       <c r="H44" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G44)</f>
@@ -4353,7 +4355,7 @@
       </c>
       <c r="G45" s="41" t="str">
         <f>_xll.qlLiborSwap($F45,Currency,FixingType,$C45,Currency&amp;$D45,Currency&amp;$E45,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixB39Y#0002</v>
+        <v>EurLiborSwapIsdaFixB39Y#0001</v>
       </c>
       <c r="H45" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G45)</f>
@@ -4378,7 +4380,7 @@
       </c>
       <c r="G46" s="41" t="str">
         <f>_xll.qlLiborSwap($F46,Currency,FixingType,$C46,Currency&amp;$D46,Currency&amp;$E46,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixB40Y#0002</v>
+        <v>EurLiborSwapIsdaFixB40Y#0001</v>
       </c>
       <c r="H46" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G46)</f>
@@ -4403,7 +4405,7 @@
       </c>
       <c r="G47" s="41" t="str">
         <f>_xll.qlLiborSwap($F47,Currency,FixingType,$C47,Currency&amp;$D47,Currency&amp;$E47,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixB41Y#0002</v>
+        <v>EurLiborSwapIsdaFixB41Y#0001</v>
       </c>
       <c r="H47" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G47)</f>
@@ -4428,7 +4430,7 @@
       </c>
       <c r="G48" s="41" t="str">
         <f>_xll.qlLiborSwap($F48,Currency,FixingType,$C48,Currency&amp;$D48,Currency&amp;$E48,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixB42Y#0002</v>
+        <v>EurLiborSwapIsdaFixB42Y#0001</v>
       </c>
       <c r="H48" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G48)</f>
@@ -4453,7 +4455,7 @@
       </c>
       <c r="G49" s="41" t="str">
         <f>_xll.qlLiborSwap($F49,Currency,FixingType,$C49,Currency&amp;$D49,Currency&amp;$E49,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixB43Y#0002</v>
+        <v>EurLiborSwapIsdaFixB43Y#0001</v>
       </c>
       <c r="H49" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G49)</f>
@@ -4478,7 +4480,7 @@
       </c>
       <c r="G50" s="41" t="str">
         <f>_xll.qlLiborSwap($F50,Currency,FixingType,$C50,Currency&amp;$D50,Currency&amp;$E50,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixB44Y#0002</v>
+        <v>EurLiborSwapIsdaFixB44Y#0001</v>
       </c>
       <c r="H50" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G50)</f>
@@ -4503,7 +4505,7 @@
       </c>
       <c r="G51" s="41" t="str">
         <f>_xll.qlLiborSwap($F51,Currency,FixingType,$C51,Currency&amp;$D51,Currency&amp;$E51,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixB45Y#0002</v>
+        <v>EurLiborSwapIsdaFixB45Y#0001</v>
       </c>
       <c r="H51" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G51)</f>
@@ -4528,7 +4530,7 @@
       </c>
       <c r="G52" s="41" t="str">
         <f>_xll.qlLiborSwap($F52,Currency,FixingType,$C52,Currency&amp;$D52,Currency&amp;$E52,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixB46Y#0002</v>
+        <v>EurLiborSwapIsdaFixB46Y#0001</v>
       </c>
       <c r="H52" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G52)</f>
@@ -4553,7 +4555,7 @@
       </c>
       <c r="G53" s="41" t="str">
         <f>_xll.qlLiborSwap($F53,Currency,FixingType,$C53,Currency&amp;$D53,Currency&amp;$E53,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixB47Y#0002</v>
+        <v>EurLiborSwapIsdaFixB47Y#0001</v>
       </c>
       <c r="H53" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G53)</f>
@@ -4578,7 +4580,7 @@
       </c>
       <c r="G54" s="41" t="str">
         <f>_xll.qlLiborSwap($F54,Currency,FixingType,$C54,Currency&amp;$D54,Currency&amp;$E54,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixB48Y#0002</v>
+        <v>EurLiborSwapIsdaFixB48Y#0001</v>
       </c>
       <c r="H54" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G54)</f>
@@ -4603,7 +4605,7 @@
       </c>
       <c r="G55" s="41" t="str">
         <f>_xll.qlLiborSwap($F55,Currency,FixingType,$C55,Currency&amp;$D55,Currency&amp;$E55,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixB49Y#0002</v>
+        <v>EurLiborSwapIsdaFixB49Y#0001</v>
       </c>
       <c r="H55" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G55)</f>
@@ -4628,7 +4630,7 @@
       </c>
       <c r="G56" s="41" t="str">
         <f>_xll.qlLiborSwap($F56,Currency,FixingType,$C56,Currency&amp;$D56,Currency&amp;$E56,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixB50Y#0002</v>
+        <v>EurLiborSwapIsdaFixB50Y#0001</v>
       </c>
       <c r="H56" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G56)</f>
@@ -4653,7 +4655,7 @@
       </c>
       <c r="G57" s="41" t="str">
         <f>_xll.qlLiborSwap($F57,Currency,FixingType,$C57,Currency&amp;$D57,Currency&amp;$E57,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixB51Y#0002</v>
+        <v>EurLiborSwapIsdaFixB51Y#0001</v>
       </c>
       <c r="H57" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G57)</f>
@@ -4678,7 +4680,7 @@
       </c>
       <c r="G58" s="41" t="str">
         <f>_xll.qlLiborSwap($F58,Currency,FixingType,$C58,Currency&amp;$D58,Currency&amp;$E58,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixB52Y#0002</v>
+        <v>EurLiborSwapIsdaFixB52Y#0001</v>
       </c>
       <c r="H58" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G58)</f>
@@ -4703,7 +4705,7 @@
       </c>
       <c r="G59" s="41" t="str">
         <f>_xll.qlLiborSwap($F59,Currency,FixingType,$C59,Currency&amp;$D59,Currency&amp;$E59,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixB53Y#0002</v>
+        <v>EurLiborSwapIsdaFixB53Y#0001</v>
       </c>
       <c r="H59" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G59)</f>
@@ -4728,7 +4730,7 @@
       </c>
       <c r="G60" s="41" t="str">
         <f>_xll.qlLiborSwap($F60,Currency,FixingType,$C60,Currency&amp;$D60,Currency&amp;$E60,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixB54Y#0002</v>
+        <v>EurLiborSwapIsdaFixB54Y#0001</v>
       </c>
       <c r="H60" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G60)</f>
@@ -4753,7 +4755,7 @@
       </c>
       <c r="G61" s="41" t="str">
         <f>_xll.qlLiborSwap($F61,Currency,FixingType,$C61,Currency&amp;$D61,Currency&amp;$E61,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixB55Y#0002</v>
+        <v>EurLiborSwapIsdaFixB55Y#0001</v>
       </c>
       <c r="H61" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G61)</f>
@@ -4778,7 +4780,7 @@
       </c>
       <c r="G62" s="41" t="str">
         <f>_xll.qlLiborSwap($F62,Currency,FixingType,$C62,Currency&amp;$D62,Currency&amp;$E62,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixB56Y#0002</v>
+        <v>EurLiborSwapIsdaFixB56Y#0001</v>
       </c>
       <c r="H62" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G62)</f>
@@ -4803,7 +4805,7 @@
       </c>
       <c r="G63" s="41" t="str">
         <f>_xll.qlLiborSwap($F63,Currency,FixingType,$C63,Currency&amp;$D63,Currency&amp;$E63,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixB57Y#0002</v>
+        <v>EurLiborSwapIsdaFixB57Y#0001</v>
       </c>
       <c r="H63" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G63)</f>
@@ -4828,7 +4830,7 @@
       </c>
       <c r="G64" s="41" t="str">
         <f>_xll.qlLiborSwap($F64,Currency,FixingType,$C64,Currency&amp;$D64,Currency&amp;$E64,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixB58Y#0002</v>
+        <v>EurLiborSwapIsdaFixB58Y#0001</v>
       </c>
       <c r="H64" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G64)</f>
@@ -4853,7 +4855,7 @@
       </c>
       <c r="G65" s="41" t="str">
         <f>_xll.qlLiborSwap($F65,Currency,FixingType,$C65,Currency&amp;$D65,Currency&amp;$E65,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixB59Y#0002</v>
+        <v>EurLiborSwapIsdaFixB59Y#0001</v>
       </c>
       <c r="H65" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G65)</f>
@@ -4878,7 +4880,7 @@
       </c>
       <c r="G66" s="41" t="str">
         <f>_xll.qlLiborSwap($F66,Currency,FixingType,$C66,Currency&amp;$D66,Currency&amp;$E66,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixB60Y#0002</v>
+        <v>EurLiborSwapIsdaFixB60Y#0001</v>
       </c>
       <c r="H66" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G66)</f>
@@ -4990,13 +4992,13 @@
         <f>PROPER(Currency)&amp;FamilyName&amp;FixingType&amp;".xml"</f>
         <v>EurLiborSwapIfrFix.xml</v>
       </c>
-      <c r="G6" s="34">
+      <c r="G6" s="34" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(G7:G66,SerializationPath&amp;FileName,FileOverwrite,Serialize),"---")</f>
-        <v>60</v>
+        <v>#NUM!</v>
       </c>
       <c r="H6" s="37" t="str">
-        <f>_xll.ohRangeRetrieveError(G6)</f>
-        <v/>
+        <f ca="1">_xll.ohRangeRetrieveError(G6)</f>
+        <v>ohObjectSave - Invalid parent path : C:\Projects\quantlib\QuantLibXL\Data\XML\010_StartUp\020_Indexes\EurLiborSwapIfrFix.xml</v>
       </c>
       <c r="I6" s="35"/>
     </row>
@@ -5017,7 +5019,7 @@
       </c>
       <c r="G7" s="41" t="str">
         <f>_xll.qlLiborSwap($F7,Currency,FixingType,$C7,Currency&amp;$D7,Currency&amp;$E7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIfrFix1Y#0002</v>
+        <v>EurLiborSwapIfrFix1Y#0001</v>
       </c>
       <c r="H7" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G7)</f>
@@ -5042,7 +5044,7 @@
       </c>
       <c r="G8" s="41" t="str">
         <f>_xll.qlLiborSwap($F8,Currency,FixingType,$C8,Currency&amp;$D8,Currency&amp;$E8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIfrFix2Y#0002</v>
+        <v>EurLiborSwapIfrFix2Y#0001</v>
       </c>
       <c r="H8" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G8)</f>
@@ -5067,7 +5069,7 @@
       </c>
       <c r="G9" s="41" t="str">
         <f>_xll.qlLiborSwap($F9,Currency,FixingType,$C9,Currency&amp;$D9,Currency&amp;$E9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIfrFix3Y#0002</v>
+        <v>EurLiborSwapIfrFix3Y#0001</v>
       </c>
       <c r="H9" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G9)</f>
@@ -5092,7 +5094,7 @@
       </c>
       <c r="G10" s="41" t="str">
         <f>_xll.qlLiborSwap($F10,Currency,FixingType,$C10,Currency&amp;$D10,Currency&amp;$E10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIfrFix4Y#0002</v>
+        <v>EurLiborSwapIfrFix4Y#0001</v>
       </c>
       <c r="H10" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G10)</f>
@@ -5117,7 +5119,7 @@
       </c>
       <c r="G11" s="41" t="str">
         <f>_xll.qlLiborSwap($F11,Currency,FixingType,$C11,Currency&amp;$D11,Currency&amp;$E11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIfrFix5Y#0002</v>
+        <v>EurLiborSwapIfrFix5Y#0001</v>
       </c>
       <c r="H11" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G11)</f>
@@ -5142,7 +5144,7 @@
       </c>
       <c r="G12" s="41" t="str">
         <f>_xll.qlLiborSwap($F12,Currency,FixingType,$C12,Currency&amp;$D12,Currency&amp;$E12,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIfrFix6Y#0002</v>
+        <v>EurLiborSwapIfrFix6Y#0001</v>
       </c>
       <c r="H12" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G12)</f>
@@ -5167,7 +5169,7 @@
       </c>
       <c r="G13" s="41" t="str">
         <f>_xll.qlLiborSwap($F13,Currency,FixingType,$C13,Currency&amp;$D13,Currency&amp;$E13,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIfrFix7Y#0002</v>
+        <v>EurLiborSwapIfrFix7Y#0001</v>
       </c>
       <c r="H13" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G13)</f>
@@ -5192,7 +5194,7 @@
       </c>
       <c r="G14" s="41" t="str">
         <f>_xll.qlLiborSwap($F14,Currency,FixingType,$C14,Currency&amp;$D14,Currency&amp;$E14,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIfrFix8Y#0002</v>
+        <v>EurLiborSwapIfrFix8Y#0001</v>
       </c>
       <c r="H14" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G14)</f>
@@ -5217,7 +5219,7 @@
       </c>
       <c r="G15" s="41" t="str">
         <f>_xll.qlLiborSwap($F15,Currency,FixingType,$C15,Currency&amp;$D15,Currency&amp;$E15,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIfrFix9Y#0002</v>
+        <v>EurLiborSwapIfrFix9Y#0001</v>
       </c>
       <c r="H15" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G15)</f>
@@ -5242,7 +5244,7 @@
       </c>
       <c r="G16" s="41" t="str">
         <f>_xll.qlLiborSwap($F16,Currency,FixingType,$C16,Currency&amp;$D16,Currency&amp;$E16,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIfrFix10Y#0002</v>
+        <v>EurLiborSwapIfrFix10Y#0001</v>
       </c>
       <c r="H16" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G16)</f>
@@ -5267,7 +5269,7 @@
       </c>
       <c r="G17" s="41" t="str">
         <f>_xll.qlLiborSwap($F17,Currency,FixingType,$C17,Currency&amp;$D17,Currency&amp;$E17,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIfrFix11Y#0002</v>
+        <v>EurLiborSwapIfrFix11Y#0001</v>
       </c>
       <c r="H17" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G17)</f>
@@ -5292,7 +5294,7 @@
       </c>
       <c r="G18" s="41" t="str">
         <f>_xll.qlLiborSwap($F18,Currency,FixingType,$C18,Currency&amp;$D18,Currency&amp;$E18,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIfrFix12Y#0002</v>
+        <v>EurLiborSwapIfrFix12Y#0001</v>
       </c>
       <c r="H18" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G18)</f>
@@ -5317,7 +5319,7 @@
       </c>
       <c r="G19" s="41" t="str">
         <f>_xll.qlLiborSwap($F19,Currency,FixingType,$C19,Currency&amp;$D19,Currency&amp;$E19,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIfrFix13Y#0002</v>
+        <v>EurLiborSwapIfrFix13Y#0001</v>
       </c>
       <c r="H19" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G19)</f>
@@ -5342,7 +5344,7 @@
       </c>
       <c r="G20" s="41" t="str">
         <f>_xll.qlLiborSwap($F20,Currency,FixingType,$C20,Currency&amp;$D20,Currency&amp;$E20,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIfrFix14Y#0002</v>
+        <v>EurLiborSwapIfrFix14Y#0001</v>
       </c>
       <c r="H20" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G20)</f>
@@ -5367,7 +5369,7 @@
       </c>
       <c r="G21" s="41" t="str">
         <f>_xll.qlLiborSwap($F21,Currency,FixingType,$C21,Currency&amp;$D21,Currency&amp;$E21,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIfrFix15Y#0002</v>
+        <v>EurLiborSwapIfrFix15Y#0001</v>
       </c>
       <c r="H21" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G21)</f>
@@ -5392,7 +5394,7 @@
       </c>
       <c r="G22" s="41" t="str">
         <f>_xll.qlLiborSwap($F22,Currency,FixingType,$C22,Currency&amp;$D22,Currency&amp;$E22,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIfrFix16Y#0002</v>
+        <v>EurLiborSwapIfrFix16Y#0001</v>
       </c>
       <c r="H22" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G22)</f>
@@ -5417,7 +5419,7 @@
       </c>
       <c r="G23" s="41" t="str">
         <f>_xll.qlLiborSwap($F23,Currency,FixingType,$C23,Currency&amp;$D23,Currency&amp;$E23,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIfrFix17Y#0002</v>
+        <v>EurLiborSwapIfrFix17Y#0001</v>
       </c>
       <c r="H23" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G23)</f>
@@ -5442,7 +5444,7 @@
       </c>
       <c r="G24" s="41" t="str">
         <f>_xll.qlLiborSwap($F24,Currency,FixingType,$C24,Currency&amp;$D24,Currency&amp;$E24,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIfrFix18Y#0002</v>
+        <v>EurLiborSwapIfrFix18Y#0001</v>
       </c>
       <c r="H24" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G24)</f>
@@ -5467,7 +5469,7 @@
       </c>
       <c r="G25" s="41" t="str">
         <f>_xll.qlLiborSwap($F25,Currency,FixingType,$C25,Currency&amp;$D25,Currency&amp;$E25,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIfrFix19Y#0002</v>
+        <v>EurLiborSwapIfrFix19Y#0001</v>
       </c>
       <c r="H25" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G25)</f>
@@ -5492,7 +5494,7 @@
       </c>
       <c r="G26" s="41" t="str">
         <f>_xll.qlLiborSwap($F26,Currency,FixingType,$C26,Currency&amp;$D26,Currency&amp;$E26,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIfrFix20Y#0002</v>
+        <v>EurLiborSwapIfrFix20Y#0001</v>
       </c>
       <c r="H26" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G26)</f>
@@ -5517,7 +5519,7 @@
       </c>
       <c r="G27" s="41" t="str">
         <f>_xll.qlLiborSwap($F27,Currency,FixingType,$C27,Currency&amp;$D27,Currency&amp;$E27,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIfrFix21Y#0002</v>
+        <v>EurLiborSwapIfrFix21Y#0001</v>
       </c>
       <c r="H27" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G27)</f>
@@ -5542,7 +5544,7 @@
       </c>
       <c r="G28" s="41" t="str">
         <f>_xll.qlLiborSwap($F28,Currency,FixingType,$C28,Currency&amp;$D28,Currency&amp;$E28,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIfrFix22Y#0002</v>
+        <v>EurLiborSwapIfrFix22Y#0001</v>
       </c>
       <c r="H28" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G28)</f>
@@ -5567,7 +5569,7 @@
       </c>
       <c r="G29" s="41" t="str">
         <f>_xll.qlLiborSwap($F29,Currency,FixingType,$C29,Currency&amp;$D29,Currency&amp;$E29,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIfrFix23Y#0002</v>
+        <v>EurLiborSwapIfrFix23Y#0001</v>
       </c>
       <c r="H29" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G29)</f>
@@ -5592,7 +5594,7 @@
       </c>
       <c r="G30" s="41" t="str">
         <f>_xll.qlLiborSwap($F30,Currency,FixingType,$C30,Currency&amp;$D30,Currency&amp;$E30,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIfrFix24Y#0002</v>
+        <v>EurLiborSwapIfrFix24Y#0001</v>
       </c>
       <c r="H30" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G30)</f>
@@ -5617,7 +5619,7 @@
       </c>
       <c r="G31" s="41" t="str">
         <f>_xll.qlLiborSwap($F31,Currency,FixingType,$C31,Currency&amp;$D31,Currency&amp;$E31,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIfrFix25Y#0002</v>
+        <v>EurLiborSwapIfrFix25Y#0001</v>
       </c>
       <c r="H31" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G31)</f>
@@ -5642,7 +5644,7 @@
       </c>
       <c r="G32" s="41" t="str">
         <f>_xll.qlLiborSwap($F32,Currency,FixingType,$C32,Currency&amp;$D32,Currency&amp;$E32,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIfrFix26Y#0002</v>
+        <v>EurLiborSwapIfrFix26Y#0001</v>
       </c>
       <c r="H32" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G32)</f>
@@ -5667,7 +5669,7 @@
       </c>
       <c r="G33" s="41" t="str">
         <f>_xll.qlLiborSwap($F33,Currency,FixingType,$C33,Currency&amp;$D33,Currency&amp;$E33,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIfrFix27Y#0002</v>
+        <v>EurLiborSwapIfrFix27Y#0001</v>
       </c>
       <c r="H33" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G33)</f>
@@ -5692,7 +5694,7 @@
       </c>
       <c r="G34" s="41" t="str">
         <f>_xll.qlLiborSwap($F34,Currency,FixingType,$C34,Currency&amp;$D34,Currency&amp;$E34,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIfrFix28Y#0002</v>
+        <v>EurLiborSwapIfrFix28Y#0001</v>
       </c>
       <c r="H34" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G34)</f>
@@ -5717,7 +5719,7 @@
       </c>
       <c r="G35" s="41" t="str">
         <f>_xll.qlLiborSwap($F35,Currency,FixingType,$C35,Currency&amp;$D35,Currency&amp;$E35,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIfrFix29Y#0002</v>
+        <v>EurLiborSwapIfrFix29Y#0001</v>
       </c>
       <c r="H35" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G35)</f>
@@ -5742,7 +5744,7 @@
       </c>
       <c r="G36" s="41" t="str">
         <f>_xll.qlLiborSwap($F36,Currency,FixingType,$C36,Currency&amp;$D36,Currency&amp;$E36,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIfrFix30Y#0002</v>
+        <v>EurLiborSwapIfrFix30Y#0001</v>
       </c>
       <c r="H36" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G36)</f>
@@ -5767,7 +5769,7 @@
       </c>
       <c r="G37" s="41" t="str">
         <f>_xll.qlLiborSwap($F37,Currency,FixingType,$C37,Currency&amp;$D37,Currency&amp;$E37,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIfrFix31Y#0002</v>
+        <v>EurLiborSwapIfrFix31Y#0001</v>
       </c>
       <c r="H37" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G37)</f>
@@ -5792,7 +5794,7 @@
       </c>
       <c r="G38" s="41" t="str">
         <f>_xll.qlLiborSwap($F38,Currency,FixingType,$C38,Currency&amp;$D38,Currency&amp;$E38,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIfrFix32Y#0002</v>
+        <v>EurLiborSwapIfrFix32Y#0001</v>
       </c>
       <c r="H38" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G38)</f>
@@ -5817,7 +5819,7 @@
       </c>
       <c r="G39" s="41" t="str">
         <f>_xll.qlLiborSwap($F39,Currency,FixingType,$C39,Currency&amp;$D39,Currency&amp;$E39,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIfrFix33Y#0002</v>
+        <v>EurLiborSwapIfrFix33Y#0001</v>
       </c>
       <c r="H39" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G39)</f>
@@ -5842,7 +5844,7 @@
       </c>
       <c r="G40" s="41" t="str">
         <f>_xll.qlLiborSwap($F40,Currency,FixingType,$C40,Currency&amp;$D40,Currency&amp;$E40,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIfrFix34Y#0002</v>
+        <v>EurLiborSwapIfrFix34Y#0001</v>
       </c>
       <c r="H40" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G40)</f>
@@ -5867,7 +5869,7 @@
       </c>
       <c r="G41" s="41" t="str">
         <f>_xll.qlLiborSwap($F41,Currency,FixingType,$C41,Currency&amp;$D41,Currency&amp;$E41,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIfrFix35Y#0002</v>
+        <v>EurLiborSwapIfrFix35Y#0001</v>
       </c>
       <c r="H41" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G41)</f>
@@ -5892,7 +5894,7 @@
       </c>
       <c r="G42" s="41" t="str">
         <f>_xll.qlLiborSwap($F42,Currency,FixingType,$C42,Currency&amp;$D42,Currency&amp;$E42,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIfrFix36Y#0002</v>
+        <v>EurLiborSwapIfrFix36Y#0001</v>
       </c>
       <c r="H42" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G42)</f>
@@ -5917,7 +5919,7 @@
       </c>
       <c r="G43" s="41" t="str">
         <f>_xll.qlLiborSwap($F43,Currency,FixingType,$C43,Currency&amp;$D43,Currency&amp;$E43,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIfrFix37Y#0002</v>
+        <v>EurLiborSwapIfrFix37Y#0001</v>
       </c>
       <c r="H43" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G43)</f>
@@ -5942,7 +5944,7 @@
       </c>
       <c r="G44" s="41" t="str">
         <f>_xll.qlLiborSwap($F44,Currency,FixingType,$C44,Currency&amp;$D44,Currency&amp;$E44,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIfrFix38Y#0002</v>
+        <v>EurLiborSwapIfrFix38Y#0001</v>
       </c>
       <c r="H44" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G44)</f>
@@ -5967,7 +5969,7 @@
       </c>
       <c r="G45" s="41" t="str">
         <f>_xll.qlLiborSwap($F45,Currency,FixingType,$C45,Currency&amp;$D45,Currency&amp;$E45,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIfrFix39Y#0002</v>
+        <v>EurLiborSwapIfrFix39Y#0001</v>
       </c>
       <c r="H45" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G45)</f>
@@ -5992,7 +5994,7 @@
       </c>
       <c r="G46" s="41" t="str">
         <f>_xll.qlLiborSwap($F46,Currency,FixingType,$C46,Currency&amp;$D46,Currency&amp;$E46,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIfrFix40Y#0002</v>
+        <v>EurLiborSwapIfrFix40Y#0001</v>
       </c>
       <c r="H46" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G46)</f>
@@ -6017,7 +6019,7 @@
       </c>
       <c r="G47" s="41" t="str">
         <f>_xll.qlLiborSwap($F47,Currency,FixingType,$C47,Currency&amp;$D47,Currency&amp;$E47,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIfrFix41Y#0002</v>
+        <v>EurLiborSwapIfrFix41Y#0001</v>
       </c>
       <c r="H47" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G47)</f>
@@ -6042,7 +6044,7 @@
       </c>
       <c r="G48" s="41" t="str">
         <f>_xll.qlLiborSwap($F48,Currency,FixingType,$C48,Currency&amp;$D48,Currency&amp;$E48,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIfrFix42Y#0002</v>
+        <v>EurLiborSwapIfrFix42Y#0001</v>
       </c>
       <c r="H48" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G48)</f>
@@ -6067,7 +6069,7 @@
       </c>
       <c r="G49" s="41" t="str">
         <f>_xll.qlLiborSwap($F49,Currency,FixingType,$C49,Currency&amp;$D49,Currency&amp;$E49,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIfrFix43Y#0002</v>
+        <v>EurLiborSwapIfrFix43Y#0001</v>
       </c>
       <c r="H49" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G49)</f>
@@ -6092,7 +6094,7 @@
       </c>
       <c r="G50" s="41" t="str">
         <f>_xll.qlLiborSwap($F50,Currency,FixingType,$C50,Currency&amp;$D50,Currency&amp;$E50,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIfrFix44Y#0002</v>
+        <v>EurLiborSwapIfrFix44Y#0001</v>
       </c>
       <c r="H50" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G50)</f>
@@ -6117,7 +6119,7 @@
       </c>
       <c r="G51" s="41" t="str">
         <f>_xll.qlLiborSwap($F51,Currency,FixingType,$C51,Currency&amp;$D51,Currency&amp;$E51,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIfrFix45Y#0002</v>
+        <v>EurLiborSwapIfrFix45Y#0001</v>
       </c>
       <c r="H51" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G51)</f>
@@ -6142,7 +6144,7 @@
       </c>
       <c r="G52" s="41" t="str">
         <f>_xll.qlLiborSwap($F52,Currency,FixingType,$C52,Currency&amp;$D52,Currency&amp;$E52,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIfrFix46Y#0002</v>
+        <v>EurLiborSwapIfrFix46Y#0001</v>
       </c>
       <c r="H52" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G52)</f>
@@ -6167,7 +6169,7 @@
       </c>
       <c r="G53" s="41" t="str">
         <f>_xll.qlLiborSwap($F53,Currency,FixingType,$C53,Currency&amp;$D53,Currency&amp;$E53,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIfrFix47Y#0002</v>
+        <v>EurLiborSwapIfrFix47Y#0001</v>
       </c>
       <c r="H53" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G53)</f>
@@ -6192,7 +6194,7 @@
       </c>
       <c r="G54" s="41" t="str">
         <f>_xll.qlLiborSwap($F54,Currency,FixingType,$C54,Currency&amp;$D54,Currency&amp;$E54,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIfrFix48Y#0002</v>
+        <v>EurLiborSwapIfrFix48Y#0001</v>
       </c>
       <c r="H54" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G54)</f>
@@ -6217,7 +6219,7 @@
       </c>
       <c r="G55" s="41" t="str">
         <f>_xll.qlLiborSwap($F55,Currency,FixingType,$C55,Currency&amp;$D55,Currency&amp;$E55,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIfrFix49Y#0002</v>
+        <v>EurLiborSwapIfrFix49Y#0001</v>
       </c>
       <c r="H55" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G55)</f>
@@ -6242,7 +6244,7 @@
       </c>
       <c r="G56" s="41" t="str">
         <f>_xll.qlLiborSwap($F56,Currency,FixingType,$C56,Currency&amp;$D56,Currency&amp;$E56,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIfrFix50Y#0002</v>
+        <v>EurLiborSwapIfrFix50Y#0001</v>
       </c>
       <c r="H56" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G56)</f>
@@ -6267,7 +6269,7 @@
       </c>
       <c r="G57" s="41" t="str">
         <f>_xll.qlLiborSwap($F57,Currency,FixingType,$C57,Currency&amp;$D57,Currency&amp;$E57,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIfrFix51Y#0002</v>
+        <v>EurLiborSwapIfrFix51Y#0001</v>
       </c>
       <c r="H57" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G57)</f>
@@ -6292,7 +6294,7 @@
       </c>
       <c r="G58" s="41" t="str">
         <f>_xll.qlLiborSwap($F58,Currency,FixingType,$C58,Currency&amp;$D58,Currency&amp;$E58,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIfrFix52Y#0002</v>
+        <v>EurLiborSwapIfrFix52Y#0001</v>
       </c>
       <c r="H58" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G58)</f>
@@ -6317,7 +6319,7 @@
       </c>
       <c r="G59" s="41" t="str">
         <f>_xll.qlLiborSwap($F59,Currency,FixingType,$C59,Currency&amp;$D59,Currency&amp;$E59,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIfrFix53Y#0002</v>
+        <v>EurLiborSwapIfrFix53Y#0001</v>
       </c>
       <c r="H59" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G59)</f>
@@ -6342,7 +6344,7 @@
       </c>
       <c r="G60" s="41" t="str">
         <f>_xll.qlLiborSwap($F60,Currency,FixingType,$C60,Currency&amp;$D60,Currency&amp;$E60,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIfrFix54Y#0002</v>
+        <v>EurLiborSwapIfrFix54Y#0001</v>
       </c>
       <c r="H60" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G60)</f>
@@ -6367,7 +6369,7 @@
       </c>
       <c r="G61" s="41" t="str">
         <f>_xll.qlLiborSwap($F61,Currency,FixingType,$C61,Currency&amp;$D61,Currency&amp;$E61,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIfrFix55Y#0002</v>
+        <v>EurLiborSwapIfrFix55Y#0001</v>
       </c>
       <c r="H61" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G61)</f>
@@ -6392,7 +6394,7 @@
       </c>
       <c r="G62" s="41" t="str">
         <f>_xll.qlLiborSwap($F62,Currency,FixingType,$C62,Currency&amp;$D62,Currency&amp;$E62,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIfrFix56Y#0002</v>
+        <v>EurLiborSwapIfrFix56Y#0001</v>
       </c>
       <c r="H62" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G62)</f>
@@ -6417,7 +6419,7 @@
       </c>
       <c r="G63" s="41" t="str">
         <f>_xll.qlLiborSwap($F63,Currency,FixingType,$C63,Currency&amp;$D63,Currency&amp;$E63,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIfrFix57Y#0002</v>
+        <v>EurLiborSwapIfrFix57Y#0001</v>
       </c>
       <c r="H63" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G63)</f>
@@ -6442,7 +6444,7 @@
       </c>
       <c r="G64" s="41" t="str">
         <f>_xll.qlLiborSwap($F64,Currency,FixingType,$C64,Currency&amp;$D64,Currency&amp;$E64,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIfrFix58Y#0002</v>
+        <v>EurLiborSwapIfrFix58Y#0001</v>
       </c>
       <c r="H64" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G64)</f>
@@ -6467,7 +6469,7 @@
       </c>
       <c r="G65" s="41" t="str">
         <f>_xll.qlLiborSwap($F65,Currency,FixingType,$C65,Currency&amp;$D65,Currency&amp;$E65,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIfrFix59Y#0002</v>
+        <v>EurLiborSwapIfrFix59Y#0001</v>
       </c>
       <c r="H65" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G65)</f>
@@ -6492,7 +6494,7 @@
       </c>
       <c r="G66" s="41" t="str">
         <f>_xll.qlLiborSwap($F66,Currency,FixingType,$C66,Currency&amp;$D66,Currency&amp;$E66,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIfrFix60Y#0002</v>
+        <v>EurLiborSwapIfrFix60Y#0001</v>
       </c>
       <c r="H66" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G66)</f>

--- a/QuantLibXL/Data/XLS/010_StartUp/020_Indexes/EurLibor.xlsx
+++ b/QuantLibXL/Data/XLS/010_StartUp/020_Indexes/EurLibor.xlsx
@@ -13,9 +13,6 @@
     <sheet name="LiborSwapIsdaFixB" sheetId="7" r:id="rId4"/>
     <sheet name="LiborSwapIfrFix" sheetId="8" r:id="rId5"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId6"/>
-  </externalReferences>
   <definedNames>
     <definedName name="Currency">'General Settings'!$D$5</definedName>
     <definedName name="FamilyName" localSheetId="1">Libor!$F$3</definedName>
@@ -41,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="100">
   <si>
     <t>Trigger</t>
   </si>
@@ -338,6 +335,9 @@
   </si>
   <si>
     <t>Disc Curve</t>
+  </si>
+  <si>
+    <t>C:\Users\erik\junk\</t>
   </si>
 </sst>
 </file>
@@ -812,24 +812,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Menu"/>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <definedNames>
-      <definedName name="qlSerializationPath"/>
-    </definedNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1217,9 +1199,8 @@
       <c r="C9" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="23" t="str">
-        <f>[1]!qlSerializationPath(Trigger)</f>
-        <v>C:\Projects\quantlib\QuantLibXL\Data\XML\010_StartUp\020_Indexes\</v>
+      <c r="D9" s="23" t="s">
+        <v>99</v>
       </c>
       <c r="E9" s="12"/>
     </row>
@@ -1328,7 +1309,7 @@
       </c>
       <c r="G5" s="49" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F5)</f>
-        <v>ohObjectSave - Invalid parent path : C:\Projects\quantlib\QuantLibXL\Data\XML\010_StartUp\020_Indexes\EurLibor.xml</v>
+        <v/>
       </c>
       <c r="H5" s="21"/>
     </row>
@@ -1770,7 +1751,7 @@
       </c>
       <c r="H6" s="37" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(G6)</f>
-        <v>ohObjectSave - Invalid parent path : C:\Projects\quantlib\QuantLibXL\Data\XML\010_StartUp\020_Indexes\EurLiborSwapIsdaFixA.xml</v>
+        <v/>
       </c>
       <c r="I6" s="35"/>
     </row>
@@ -3384,7 +3365,7 @@
       </c>
       <c r="H6" s="37" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(G6)</f>
-        <v>ohObjectSave - Invalid parent path : C:\Projects\quantlib\QuantLibXL\Data\XML\010_StartUp\020_Indexes\EurLiborSwapIsdaFixB.xml</v>
+        <v/>
       </c>
       <c r="I6" s="35"/>
     </row>
@@ -4998,7 +4979,7 @@
       </c>
       <c r="H6" s="37" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(G6)</f>
-        <v>ohObjectSave - Invalid parent path : C:\Projects\quantlib\QuantLibXL\Data\XML\010_StartUp\020_Indexes\EurLiborSwapIfrFix.xml</v>
+        <v/>
       </c>
       <c r="I6" s="35"/>
     </row>

--- a/QuantLibXL/Data/XLS/010_StartUp/020_Indexes/EurLibor.xlsx
+++ b/QuantLibXL/Data/XLS/010_StartUp/020_Indexes/EurLibor.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="99">
   <si>
     <t>Trigger</t>
   </si>
@@ -335,9 +335,6 @@
   </si>
   <si>
     <t>Disc Curve</t>
-  </si>
-  <si>
-    <t>C:\Users\erik\junk\</t>
   </si>
 </sst>
 </file>
@@ -1199,8 +1196,9 @@
       <c r="C9" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="23" t="s">
-        <v>99</v>
+      <c r="D9" s="23" t="str">
+        <f ca="1">SUBSTITUTE(LEFT(CELL("filename",A1),FIND("[",CELL("filename",A1),1)-1),"\XLS\","\XML\")</f>
+        <v>C:\Users\erik\Documents\repos\quantlib_nando\QuantLibXL\Data\XML\010_StartUp\020_Indexes\</v>
       </c>
       <c r="E9" s="12"/>
     </row>
@@ -1304,12 +1302,12 @@
         <v>EurLibor.xml</v>
       </c>
       <c r="F5" s="51" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(F6:F20,SerializationPath&amp;FileName,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G5" s="49" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(F6:F20,SerializationPath&amp;FileName,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G5" s="49" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(F5)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="H5" s="21"/>
     </row>
@@ -1746,12 +1744,12 @@
         <v>EurLiborSwapIsdaFixA.xml</v>
       </c>
       <c r="G6" s="34" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(G7:G66,SerializationPath&amp;FileName,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H6" s="37" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(G7:G66,SerializationPath&amp;FileName,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="H6" s="37" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(G6)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="I6" s="35"/>
     </row>
@@ -3360,12 +3358,12 @@
         <v>EurLiborSwapIsdaFixB.xml</v>
       </c>
       <c r="G6" s="34" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(G7:G66,SerializationPath&amp;FileName,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H6" s="37" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(G7:G66,SerializationPath&amp;FileName,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="H6" s="37" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(G6)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="I6" s="35"/>
     </row>
@@ -4974,12 +4972,12 @@
         <v>EurLiborSwapIfrFix.xml</v>
       </c>
       <c r="G6" s="34" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(G7:G66,SerializationPath&amp;FileName,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H6" s="37" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(G7:G66,SerializationPath&amp;FileName,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="H6" s="37" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(G6)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="I6" s="35"/>
     </row>

--- a/QuantLibXL/Data/XLS/010_StartUp/020_Indexes/EurLibor.xlsx
+++ b/QuantLibXL/Data/XLS/010_StartUp/020_Indexes/EurLibor.xlsx
@@ -1118,7 +1118,7 @@
     <row r="1" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="15" t="str">
         <f>_xll.qlxlVersion(TRUE,Trigger)</f>
-        <v>QuantLibXL 1.3.0 - MS VC++ 9.0 - Multithreaded Dynamic Runtime library - Release Configuration - Nov  4 2013 11:55:45</v>
+        <v>QuantLibXL 1.3.0 - MS VC++ 9.0 - Multithreaded Static Runtime library - Release Configuration - Nov  6 2013 01:01:46</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -1198,7 +1198,7 @@
       </c>
       <c r="D9" s="23" t="str">
         <f ca="1">SUBSTITUTE(LEFT(CELL("filename",A1),FIND("[",CELL("filename",A1),1)-1),"\XLS\","\XML\")</f>
-        <v>C:\Users\erik\Documents\repos\quantlib_nando\QuantLibXL\Data\XML\010_StartUp\020_Indexes\</v>
+        <v>C:\Projects\quantlib\QuantLibXL\Data\XML\010_StartUp\020_Indexes\</v>
       </c>
       <c r="E9" s="12"/>
     </row>
@@ -1301,13 +1301,13 @@
         <f>PROPER(Currency)&amp;FamilyName&amp;".xml"</f>
         <v>EurLibor.xml</v>
       </c>
-      <c r="F5" s="51" t="e">
-        <f ca="1">IF(Serialize,_xll.ohObjectSave(F6:F20,SerializationPath&amp;FileName,FileOverwrite,Serialize),"---")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="G5" s="49" t="e">
+      <c r="F5" s="51">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(F6:F20,SerializationPath&amp;FileName,FileOverwrite,,Serialize),"---")</f>
+        <v>15</v>
+      </c>
+      <c r="G5" s="49" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F5)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="H5" s="21"/>
     </row>
@@ -1325,7 +1325,7 @@
       </c>
       <c r="F6" s="53" t="str">
         <f>_xll.qlLibor($E6,Currency,$C6,Currency&amp;$D6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborON#0001</v>
+        <v>EurLiborON#0002</v>
       </c>
       <c r="G6" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(F6)</f>
@@ -1347,7 +1347,7 @@
       </c>
       <c r="F7" s="53" t="str">
         <f>_xll.qlLibor($E7,Currency,$C7,Currency&amp;$D7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSW#0001</v>
+        <v>EurLiborSW#0002</v>
       </c>
       <c r="G7" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(F7)</f>
@@ -1369,7 +1369,7 @@
       </c>
       <c r="F8" s="53" t="str">
         <f>_xll.qlLibor($E8,Currency,$C8,Currency&amp;$D8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLibor2W#0001</v>
+        <v>EurLibor2W#0002</v>
       </c>
       <c r="G8" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(F8)</f>
@@ -1391,7 +1391,7 @@
       </c>
       <c r="F9" s="53" t="str">
         <f>_xll.qlLibor($E9,Currency,$C9,Currency&amp;$D9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLibor1M#0001</v>
+        <v>EurLibor1M#0002</v>
       </c>
       <c r="G9" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(F9)</f>
@@ -1413,7 +1413,7 @@
       </c>
       <c r="F10" s="53" t="str">
         <f>_xll.qlLibor($E10,Currency,$C10,Currency&amp;$D10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLibor2M#0001</v>
+        <v>EurLibor2M#0002</v>
       </c>
       <c r="G10" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(F10)</f>
@@ -1435,7 +1435,7 @@
       </c>
       <c r="F11" s="53" t="str">
         <f>_xll.qlLibor($E11,Currency,$C11,Currency&amp;$D11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLibor3M#0001</v>
+        <v>EurLibor3M#0002</v>
       </c>
       <c r="G11" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(F11)</f>
@@ -1457,7 +1457,7 @@
       </c>
       <c r="F12" s="53" t="str">
         <f>_xll.qlLibor($E12,Currency,$C12,Currency&amp;$D12,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLibor4M#0001</v>
+        <v>EurLibor4M#0002</v>
       </c>
       <c r="G12" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(F12)</f>
@@ -1479,7 +1479,7 @@
       </c>
       <c r="F13" s="53" t="str">
         <f>_xll.qlLibor($E13,Currency,$C13,Currency&amp;$D13,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLibor5M#0001</v>
+        <v>EurLibor5M#0002</v>
       </c>
       <c r="G13" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(F13)</f>
@@ -1501,7 +1501,7 @@
       </c>
       <c r="F14" s="53" t="str">
         <f>_xll.qlLibor($E14,Currency,$C14,Currency&amp;$D14,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLibor6M#0001</v>
+        <v>EurLibor6M#0002</v>
       </c>
       <c r="G14" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(F14)</f>
@@ -1523,7 +1523,7 @@
       </c>
       <c r="F15" s="53" t="str">
         <f>_xll.qlLibor($E15,Currency,$C15,Currency&amp;$D15,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLibor7M#0001</v>
+        <v>EurLibor7M#0002</v>
       </c>
       <c r="G15" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(F15)</f>
@@ -1545,7 +1545,7 @@
       </c>
       <c r="F16" s="53" t="str">
         <f>_xll.qlLibor($E16,Currency,$C16,Currency&amp;$D16,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLibor8M#0001</v>
+        <v>EurLibor8M#0002</v>
       </c>
       <c r="G16" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(F16)</f>
@@ -1567,7 +1567,7 @@
       </c>
       <c r="F17" s="53" t="str">
         <f>_xll.qlLibor($E17,Currency,$C17,Currency&amp;$D17,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLibor9M#0001</v>
+        <v>EurLibor9M#0002</v>
       </c>
       <c r="G17" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(F17)</f>
@@ -1589,7 +1589,7 @@
       </c>
       <c r="F18" s="53" t="str">
         <f>_xll.qlLibor($E18,Currency,$C18,Currency&amp;$D18,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLibor10M#0001</v>
+        <v>EurLibor10M#0002</v>
       </c>
       <c r="G18" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(F18)</f>
@@ -1611,7 +1611,7 @@
       </c>
       <c r="F19" s="53" t="str">
         <f>_xll.qlLibor($E19,Currency,$C19,Currency&amp;$D19,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLibor11M#0001</v>
+        <v>EurLibor11M#0002</v>
       </c>
       <c r="G19" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(F19)</f>
@@ -1633,7 +1633,7 @@
       </c>
       <c r="F20" s="53" t="str">
         <f>_xll.qlLibor($E20,Currency,$C20,Currency&amp;$D20,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLibor1Y#0001</v>
+        <v>EurLibor1Y#0002</v>
       </c>
       <c r="G20" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(F20)</f>
@@ -1743,13 +1743,13 @@
         <f>PROPER(Currency)&amp;FamilyName&amp;FixingType&amp;".xml"</f>
         <v>EurLiborSwapIsdaFixA.xml</v>
       </c>
-      <c r="G6" s="34" t="e">
-        <f ca="1">IF(Serialize,_xll.ohObjectSave(G7:G66,SerializationPath&amp;FileName,FileOverwrite,Serialize),"---")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="H6" s="37" t="e">
+      <c r="G6" s="34">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(G7:G66,SerializationPath&amp;FileName,FileOverwrite,,Serialize),"---")</f>
+        <v>60</v>
+      </c>
+      <c r="H6" s="37" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(G6)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="I6" s="35"/>
     </row>
@@ -1770,7 +1770,7 @@
       </c>
       <c r="G7" s="41" t="str">
         <f>_xll.qlLiborSwap($F7,Currency,FixingType,$C7,Currency&amp;$D7,Currency&amp;$E7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixA1Y#0001</v>
+        <v>EurLiborSwapIsdaFixA1Y#0002</v>
       </c>
       <c r="H7" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G7)</f>
@@ -1795,7 +1795,7 @@
       </c>
       <c r="G8" s="41" t="str">
         <f>_xll.qlLiborSwap($F8,Currency,FixingType,$C8,Currency&amp;$D8,Currency&amp;$E8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixA2Y#0001</v>
+        <v>EurLiborSwapIsdaFixA2Y#0002</v>
       </c>
       <c r="H8" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G8)</f>
@@ -1820,7 +1820,7 @@
       </c>
       <c r="G9" s="41" t="str">
         <f>_xll.qlLiborSwap($F9,Currency,FixingType,$C9,Currency&amp;$D9,Currency&amp;$E9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixA3Y#0001</v>
+        <v>EurLiborSwapIsdaFixA3Y#0002</v>
       </c>
       <c r="H9" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G9)</f>
@@ -1845,7 +1845,7 @@
       </c>
       <c r="G10" s="41" t="str">
         <f>_xll.qlLiborSwap($F10,Currency,FixingType,$C10,Currency&amp;$D10,Currency&amp;$E10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixA4Y#0001</v>
+        <v>EurLiborSwapIsdaFixA4Y#0002</v>
       </c>
       <c r="H10" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G10)</f>
@@ -1870,7 +1870,7 @@
       </c>
       <c r="G11" s="41" t="str">
         <f>_xll.qlLiborSwap($F11,Currency,FixingType,$C11,Currency&amp;$D11,Currency&amp;$E11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixA5Y#0001</v>
+        <v>EurLiborSwapIsdaFixA5Y#0002</v>
       </c>
       <c r="H11" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G11)</f>
@@ -1895,7 +1895,7 @@
       </c>
       <c r="G12" s="41" t="str">
         <f>_xll.qlLiborSwap($F12,Currency,FixingType,$C12,Currency&amp;$D12,Currency&amp;$E12,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixA6Y#0001</v>
+        <v>EurLiborSwapIsdaFixA6Y#0002</v>
       </c>
       <c r="H12" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G12)</f>
@@ -1920,7 +1920,7 @@
       </c>
       <c r="G13" s="41" t="str">
         <f>_xll.qlLiborSwap($F13,Currency,FixingType,$C13,Currency&amp;$D13,Currency&amp;$E13,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixA7Y#0001</v>
+        <v>EurLiborSwapIsdaFixA7Y#0002</v>
       </c>
       <c r="H13" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G13)</f>
@@ -1945,7 +1945,7 @@
       </c>
       <c r="G14" s="41" t="str">
         <f>_xll.qlLiborSwap($F14,Currency,FixingType,$C14,Currency&amp;$D14,Currency&amp;$E14,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixA8Y#0001</v>
+        <v>EurLiborSwapIsdaFixA8Y#0002</v>
       </c>
       <c r="H14" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G14)</f>
@@ -1970,7 +1970,7 @@
       </c>
       <c r="G15" s="41" t="str">
         <f>_xll.qlLiborSwap($F15,Currency,FixingType,$C15,Currency&amp;$D15,Currency&amp;$E15,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixA9Y#0001</v>
+        <v>EurLiborSwapIsdaFixA9Y#0002</v>
       </c>
       <c r="H15" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G15)</f>
@@ -1995,7 +1995,7 @@
       </c>
       <c r="G16" s="41" t="str">
         <f>_xll.qlLiborSwap($F16,Currency,FixingType,$C16,Currency&amp;$D16,Currency&amp;$E16,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixA10Y#0001</v>
+        <v>EurLiborSwapIsdaFixA10Y#0002</v>
       </c>
       <c r="H16" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G16)</f>
@@ -2020,7 +2020,7 @@
       </c>
       <c r="G17" s="41" t="str">
         <f>_xll.qlLiborSwap($F17,Currency,FixingType,$C17,Currency&amp;$D17,Currency&amp;$E17,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixA11Y#0001</v>
+        <v>EurLiborSwapIsdaFixA11Y#0002</v>
       </c>
       <c r="H17" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G17)</f>
@@ -2045,7 +2045,7 @@
       </c>
       <c r="G18" s="41" t="str">
         <f>_xll.qlLiborSwap($F18,Currency,FixingType,$C18,Currency&amp;$D18,Currency&amp;$E18,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixA12Y#0001</v>
+        <v>EurLiborSwapIsdaFixA12Y#0002</v>
       </c>
       <c r="H18" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G18)</f>
@@ -2070,7 +2070,7 @@
       </c>
       <c r="G19" s="41" t="str">
         <f>_xll.qlLiborSwap($F19,Currency,FixingType,$C19,Currency&amp;$D19,Currency&amp;$E19,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixA13Y#0001</v>
+        <v>EurLiborSwapIsdaFixA13Y#0002</v>
       </c>
       <c r="H19" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G19)</f>
@@ -2095,7 +2095,7 @@
       </c>
       <c r="G20" s="41" t="str">
         <f>_xll.qlLiborSwap($F20,Currency,FixingType,$C20,Currency&amp;$D20,Currency&amp;$E20,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixA14Y#0001</v>
+        <v>EurLiborSwapIsdaFixA14Y#0002</v>
       </c>
       <c r="H20" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G20)</f>
@@ -2120,7 +2120,7 @@
       </c>
       <c r="G21" s="41" t="str">
         <f>_xll.qlLiborSwap($F21,Currency,FixingType,$C21,Currency&amp;$D21,Currency&amp;$E21,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixA15Y#0001</v>
+        <v>EurLiborSwapIsdaFixA15Y#0002</v>
       </c>
       <c r="H21" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G21)</f>
@@ -2145,7 +2145,7 @@
       </c>
       <c r="G22" s="41" t="str">
         <f>_xll.qlLiborSwap($F22,Currency,FixingType,$C22,Currency&amp;$D22,Currency&amp;$E22,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixA16Y#0001</v>
+        <v>EurLiborSwapIsdaFixA16Y#0002</v>
       </c>
       <c r="H22" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G22)</f>
@@ -2170,7 +2170,7 @@
       </c>
       <c r="G23" s="41" t="str">
         <f>_xll.qlLiborSwap($F23,Currency,FixingType,$C23,Currency&amp;$D23,Currency&amp;$E23,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixA17Y#0001</v>
+        <v>EurLiborSwapIsdaFixA17Y#0002</v>
       </c>
       <c r="H23" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G23)</f>
@@ -2195,7 +2195,7 @@
       </c>
       <c r="G24" s="41" t="str">
         <f>_xll.qlLiborSwap($F24,Currency,FixingType,$C24,Currency&amp;$D24,Currency&amp;$E24,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixA18Y#0001</v>
+        <v>EurLiborSwapIsdaFixA18Y#0002</v>
       </c>
       <c r="H24" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G24)</f>
@@ -2220,7 +2220,7 @@
       </c>
       <c r="G25" s="41" t="str">
         <f>_xll.qlLiborSwap($F25,Currency,FixingType,$C25,Currency&amp;$D25,Currency&amp;$E25,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixA19Y#0001</v>
+        <v>EurLiborSwapIsdaFixA19Y#0002</v>
       </c>
       <c r="H25" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G25)</f>
@@ -2245,7 +2245,7 @@
       </c>
       <c r="G26" s="41" t="str">
         <f>_xll.qlLiborSwap($F26,Currency,FixingType,$C26,Currency&amp;$D26,Currency&amp;$E26,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixA20Y#0001</v>
+        <v>EurLiborSwapIsdaFixA20Y#0002</v>
       </c>
       <c r="H26" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G26)</f>
@@ -2270,7 +2270,7 @@
       </c>
       <c r="G27" s="41" t="str">
         <f>_xll.qlLiborSwap($F27,Currency,FixingType,$C27,Currency&amp;$D27,Currency&amp;$E27,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixA21Y#0001</v>
+        <v>EurLiborSwapIsdaFixA21Y#0002</v>
       </c>
       <c r="H27" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G27)</f>
@@ -2295,7 +2295,7 @@
       </c>
       <c r="G28" s="41" t="str">
         <f>_xll.qlLiborSwap($F28,Currency,FixingType,$C28,Currency&amp;$D28,Currency&amp;$E28,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixA22Y#0001</v>
+        <v>EurLiborSwapIsdaFixA22Y#0002</v>
       </c>
       <c r="H28" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G28)</f>
@@ -2320,7 +2320,7 @@
       </c>
       <c r="G29" s="41" t="str">
         <f>_xll.qlLiborSwap($F29,Currency,FixingType,$C29,Currency&amp;$D29,Currency&amp;$E29,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixA23Y#0001</v>
+        <v>EurLiborSwapIsdaFixA23Y#0002</v>
       </c>
       <c r="H29" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G29)</f>
@@ -2345,7 +2345,7 @@
       </c>
       <c r="G30" s="41" t="str">
         <f>_xll.qlLiborSwap($F30,Currency,FixingType,$C30,Currency&amp;$D30,Currency&amp;$E30,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixA24Y#0001</v>
+        <v>EurLiborSwapIsdaFixA24Y#0002</v>
       </c>
       <c r="H30" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G30)</f>
@@ -2370,7 +2370,7 @@
       </c>
       <c r="G31" s="41" t="str">
         <f>_xll.qlLiborSwap($F31,Currency,FixingType,$C31,Currency&amp;$D31,Currency&amp;$E31,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixA25Y#0001</v>
+        <v>EurLiborSwapIsdaFixA25Y#0002</v>
       </c>
       <c r="H31" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G31)</f>
@@ -2395,7 +2395,7 @@
       </c>
       <c r="G32" s="41" t="str">
         <f>_xll.qlLiborSwap($F32,Currency,FixingType,$C32,Currency&amp;$D32,Currency&amp;$E32,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixA26Y#0001</v>
+        <v>EurLiborSwapIsdaFixA26Y#0002</v>
       </c>
       <c r="H32" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G32)</f>
@@ -2420,7 +2420,7 @@
       </c>
       <c r="G33" s="41" t="str">
         <f>_xll.qlLiborSwap($F33,Currency,FixingType,$C33,Currency&amp;$D33,Currency&amp;$E33,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixA27Y#0001</v>
+        <v>EurLiborSwapIsdaFixA27Y#0002</v>
       </c>
       <c r="H33" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G33)</f>
@@ -2445,7 +2445,7 @@
       </c>
       <c r="G34" s="41" t="str">
         <f>_xll.qlLiborSwap($F34,Currency,FixingType,$C34,Currency&amp;$D34,Currency&amp;$E34,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixA28Y#0001</v>
+        <v>EurLiborSwapIsdaFixA28Y#0002</v>
       </c>
       <c r="H34" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G34)</f>
@@ -2470,7 +2470,7 @@
       </c>
       <c r="G35" s="41" t="str">
         <f>_xll.qlLiborSwap($F35,Currency,FixingType,$C35,Currency&amp;$D35,Currency&amp;$E35,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixA29Y#0001</v>
+        <v>EurLiborSwapIsdaFixA29Y#0002</v>
       </c>
       <c r="H35" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G35)</f>
@@ -2495,7 +2495,7 @@
       </c>
       <c r="G36" s="41" t="str">
         <f>_xll.qlLiborSwap($F36,Currency,FixingType,$C36,Currency&amp;$D36,Currency&amp;$E36,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixA30Y#0001</v>
+        <v>EurLiborSwapIsdaFixA30Y#0002</v>
       </c>
       <c r="H36" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G36)</f>
@@ -2520,7 +2520,7 @@
       </c>
       <c r="G37" s="41" t="str">
         <f>_xll.qlLiborSwap($F37,Currency,FixingType,$C37,Currency&amp;$D37,Currency&amp;$E37,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixA31Y#0001</v>
+        <v>EurLiborSwapIsdaFixA31Y#0002</v>
       </c>
       <c r="H37" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G37)</f>
@@ -2545,7 +2545,7 @@
       </c>
       <c r="G38" s="41" t="str">
         <f>_xll.qlLiborSwap($F38,Currency,FixingType,$C38,Currency&amp;$D38,Currency&amp;$E38,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixA32Y#0001</v>
+        <v>EurLiborSwapIsdaFixA32Y#0002</v>
       </c>
       <c r="H38" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G38)</f>
@@ -2570,7 +2570,7 @@
       </c>
       <c r="G39" s="41" t="str">
         <f>_xll.qlLiborSwap($F39,Currency,FixingType,$C39,Currency&amp;$D39,Currency&amp;$E39,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixA33Y#0001</v>
+        <v>EurLiborSwapIsdaFixA33Y#0002</v>
       </c>
       <c r="H39" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G39)</f>
@@ -2595,7 +2595,7 @@
       </c>
       <c r="G40" s="41" t="str">
         <f>_xll.qlLiborSwap($F40,Currency,FixingType,$C40,Currency&amp;$D40,Currency&amp;$E40,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixA34Y#0001</v>
+        <v>EurLiborSwapIsdaFixA34Y#0002</v>
       </c>
       <c r="H40" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G40)</f>
@@ -2620,7 +2620,7 @@
       </c>
       <c r="G41" s="41" t="str">
         <f>_xll.qlLiborSwap($F41,Currency,FixingType,$C41,Currency&amp;$D41,Currency&amp;$E41,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixA35Y#0001</v>
+        <v>EurLiborSwapIsdaFixA35Y#0002</v>
       </c>
       <c r="H41" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G41)</f>
@@ -2645,7 +2645,7 @@
       </c>
       <c r="G42" s="41" t="str">
         <f>_xll.qlLiborSwap($F42,Currency,FixingType,$C42,Currency&amp;$D42,Currency&amp;$E42,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixA36Y#0001</v>
+        <v>EurLiborSwapIsdaFixA36Y#0002</v>
       </c>
       <c r="H42" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G42)</f>
@@ -2670,7 +2670,7 @@
       </c>
       <c r="G43" s="41" t="str">
         <f>_xll.qlLiborSwap($F43,Currency,FixingType,$C43,Currency&amp;$D43,Currency&amp;$E43,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixA37Y#0001</v>
+        <v>EurLiborSwapIsdaFixA37Y#0002</v>
       </c>
       <c r="H43" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G43)</f>
@@ -2695,7 +2695,7 @@
       </c>
       <c r="G44" s="41" t="str">
         <f>_xll.qlLiborSwap($F44,Currency,FixingType,$C44,Currency&amp;$D44,Currency&amp;$E44,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixA38Y#0001</v>
+        <v>EurLiborSwapIsdaFixA38Y#0002</v>
       </c>
       <c r="H44" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G44)</f>
@@ -2720,7 +2720,7 @@
       </c>
       <c r="G45" s="41" t="str">
         <f>_xll.qlLiborSwap($F45,Currency,FixingType,$C45,Currency&amp;$D45,Currency&amp;$E45,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixA39Y#0001</v>
+        <v>EurLiborSwapIsdaFixA39Y#0002</v>
       </c>
       <c r="H45" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G45)</f>
@@ -2745,7 +2745,7 @@
       </c>
       <c r="G46" s="41" t="str">
         <f>_xll.qlLiborSwap($F46,Currency,FixingType,$C46,Currency&amp;$D46,Currency&amp;$E46,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixA40Y#0001</v>
+        <v>EurLiborSwapIsdaFixA40Y#0002</v>
       </c>
       <c r="H46" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G46)</f>
@@ -2770,7 +2770,7 @@
       </c>
       <c r="G47" s="41" t="str">
         <f>_xll.qlLiborSwap($F47,Currency,FixingType,$C47,Currency&amp;$D47,Currency&amp;$E47,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixA41Y#0001</v>
+        <v>EurLiborSwapIsdaFixA41Y#0002</v>
       </c>
       <c r="H47" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G47)</f>
@@ -2795,7 +2795,7 @@
       </c>
       <c r="G48" s="41" t="str">
         <f>_xll.qlLiborSwap($F48,Currency,FixingType,$C48,Currency&amp;$D48,Currency&amp;$E48,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixA42Y#0001</v>
+        <v>EurLiborSwapIsdaFixA42Y#0002</v>
       </c>
       <c r="H48" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G48)</f>
@@ -2820,7 +2820,7 @@
       </c>
       <c r="G49" s="41" t="str">
         <f>_xll.qlLiborSwap($F49,Currency,FixingType,$C49,Currency&amp;$D49,Currency&amp;$E49,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixA43Y#0001</v>
+        <v>EurLiborSwapIsdaFixA43Y#0002</v>
       </c>
       <c r="H49" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G49)</f>
@@ -2845,7 +2845,7 @@
       </c>
       <c r="G50" s="41" t="str">
         <f>_xll.qlLiborSwap($F50,Currency,FixingType,$C50,Currency&amp;$D50,Currency&amp;$E50,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixA44Y#0001</v>
+        <v>EurLiborSwapIsdaFixA44Y#0002</v>
       </c>
       <c r="H50" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G50)</f>
@@ -2870,7 +2870,7 @@
       </c>
       <c r="G51" s="41" t="str">
         <f>_xll.qlLiborSwap($F51,Currency,FixingType,$C51,Currency&amp;$D51,Currency&amp;$E51,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixA45Y#0001</v>
+        <v>EurLiborSwapIsdaFixA45Y#0002</v>
       </c>
       <c r="H51" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G51)</f>
@@ -2895,7 +2895,7 @@
       </c>
       <c r="G52" s="41" t="str">
         <f>_xll.qlLiborSwap($F52,Currency,FixingType,$C52,Currency&amp;$D52,Currency&amp;$E52,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixA46Y#0001</v>
+        <v>EurLiborSwapIsdaFixA46Y#0002</v>
       </c>
       <c r="H52" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G52)</f>
@@ -2920,7 +2920,7 @@
       </c>
       <c r="G53" s="41" t="str">
         <f>_xll.qlLiborSwap($F53,Currency,FixingType,$C53,Currency&amp;$D53,Currency&amp;$E53,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixA47Y#0001</v>
+        <v>EurLiborSwapIsdaFixA47Y#0002</v>
       </c>
       <c r="H53" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G53)</f>
@@ -2945,7 +2945,7 @@
       </c>
       <c r="G54" s="41" t="str">
         <f>_xll.qlLiborSwap($F54,Currency,FixingType,$C54,Currency&amp;$D54,Currency&amp;$E54,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixA48Y#0001</v>
+        <v>EurLiborSwapIsdaFixA48Y#0002</v>
       </c>
       <c r="H54" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G54)</f>
@@ -2970,7 +2970,7 @@
       </c>
       <c r="G55" s="41" t="str">
         <f>_xll.qlLiborSwap($F55,Currency,FixingType,$C55,Currency&amp;$D55,Currency&amp;$E55,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixA49Y#0001</v>
+        <v>EurLiborSwapIsdaFixA49Y#0002</v>
       </c>
       <c r="H55" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G55)</f>
@@ -2995,7 +2995,7 @@
       </c>
       <c r="G56" s="41" t="str">
         <f>_xll.qlLiborSwap($F56,Currency,FixingType,$C56,Currency&amp;$D56,Currency&amp;$E56,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixA50Y#0001</v>
+        <v>EurLiborSwapIsdaFixA50Y#0002</v>
       </c>
       <c r="H56" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G56)</f>
@@ -3020,7 +3020,7 @@
       </c>
       <c r="G57" s="41" t="str">
         <f>_xll.qlLiborSwap($F57,Currency,FixingType,$C57,Currency&amp;$D57,Currency&amp;$E57,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixA51Y#0001</v>
+        <v>EurLiborSwapIsdaFixA51Y#0002</v>
       </c>
       <c r="H57" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G57)</f>
@@ -3045,7 +3045,7 @@
       </c>
       <c r="G58" s="41" t="str">
         <f>_xll.qlLiborSwap($F58,Currency,FixingType,$C58,Currency&amp;$D58,Currency&amp;$E58,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixA52Y#0001</v>
+        <v>EurLiborSwapIsdaFixA52Y#0002</v>
       </c>
       <c r="H58" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G58)</f>
@@ -3070,7 +3070,7 @@
       </c>
       <c r="G59" s="41" t="str">
         <f>_xll.qlLiborSwap($F59,Currency,FixingType,$C59,Currency&amp;$D59,Currency&amp;$E59,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixA53Y#0001</v>
+        <v>EurLiborSwapIsdaFixA53Y#0002</v>
       </c>
       <c r="H59" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G59)</f>
@@ -3095,7 +3095,7 @@
       </c>
       <c r="G60" s="41" t="str">
         <f>_xll.qlLiborSwap($F60,Currency,FixingType,$C60,Currency&amp;$D60,Currency&amp;$E60,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixA54Y#0001</v>
+        <v>EurLiborSwapIsdaFixA54Y#0002</v>
       </c>
       <c r="H60" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G60)</f>
@@ -3120,7 +3120,7 @@
       </c>
       <c r="G61" s="41" t="str">
         <f>_xll.qlLiborSwap($F61,Currency,FixingType,$C61,Currency&amp;$D61,Currency&amp;$E61,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixA55Y#0001</v>
+        <v>EurLiborSwapIsdaFixA55Y#0002</v>
       </c>
       <c r="H61" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G61)</f>
@@ -3145,7 +3145,7 @@
       </c>
       <c r="G62" s="41" t="str">
         <f>_xll.qlLiborSwap($F62,Currency,FixingType,$C62,Currency&amp;$D62,Currency&amp;$E62,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixA56Y#0001</v>
+        <v>EurLiborSwapIsdaFixA56Y#0002</v>
       </c>
       <c r="H62" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G62)</f>
@@ -3170,7 +3170,7 @@
       </c>
       <c r="G63" s="41" t="str">
         <f>_xll.qlLiborSwap($F63,Currency,FixingType,$C63,Currency&amp;$D63,Currency&amp;$E63,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixA57Y#0001</v>
+        <v>EurLiborSwapIsdaFixA57Y#0002</v>
       </c>
       <c r="H63" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G63)</f>
@@ -3195,7 +3195,7 @@
       </c>
       <c r="G64" s="41" t="str">
         <f>_xll.qlLiborSwap($F64,Currency,FixingType,$C64,Currency&amp;$D64,Currency&amp;$E64,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixA58Y#0001</v>
+        <v>EurLiborSwapIsdaFixA58Y#0002</v>
       </c>
       <c r="H64" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G64)</f>
@@ -3220,7 +3220,7 @@
       </c>
       <c r="G65" s="41" t="str">
         <f>_xll.qlLiborSwap($F65,Currency,FixingType,$C65,Currency&amp;$D65,Currency&amp;$E65,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixA59Y#0001</v>
+        <v>EurLiborSwapIsdaFixA59Y#0002</v>
       </c>
       <c r="H65" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G65)</f>
@@ -3245,7 +3245,7 @@
       </c>
       <c r="G66" s="41" t="str">
         <f>_xll.qlLiborSwap($F66,Currency,FixingType,$C66,Currency&amp;$D66,Currency&amp;$E66,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixA60Y#0001</v>
+        <v>EurLiborSwapIsdaFixA60Y#0002</v>
       </c>
       <c r="H66" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G66)</f>
@@ -3357,13 +3357,13 @@
         <f>PROPER(Currency)&amp;FamilyName&amp;FixingType&amp;".xml"</f>
         <v>EurLiborSwapIsdaFixB.xml</v>
       </c>
-      <c r="G6" s="34" t="e">
-        <f ca="1">IF(Serialize,_xll.ohObjectSave(G7:G66,SerializationPath&amp;FileName,FileOverwrite,Serialize),"---")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="H6" s="37" t="e">
+      <c r="G6" s="34">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(G7:G66,SerializationPath&amp;FileName,FileOverwrite,,Serialize),"---")</f>
+        <v>60</v>
+      </c>
+      <c r="H6" s="37" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(G6)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="I6" s="35"/>
     </row>
@@ -3384,7 +3384,7 @@
       </c>
       <c r="G7" s="41" t="str">
         <f>_xll.qlLiborSwap($F7,Currency,FixingType,$C7,Currency&amp;$D7,Currency&amp;$E7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixB1Y#0001</v>
+        <v>EurLiborSwapIsdaFixB1Y#0002</v>
       </c>
       <c r="H7" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G7)</f>
@@ -3409,7 +3409,7 @@
       </c>
       <c r="G8" s="41" t="str">
         <f>_xll.qlLiborSwap($F8,Currency,FixingType,$C8,Currency&amp;$D8,Currency&amp;$E8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixB2Y#0001</v>
+        <v>EurLiborSwapIsdaFixB2Y#0002</v>
       </c>
       <c r="H8" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G8)</f>
@@ -3434,7 +3434,7 @@
       </c>
       <c r="G9" s="41" t="str">
         <f>_xll.qlLiborSwap($F9,Currency,FixingType,$C9,Currency&amp;$D9,Currency&amp;$E9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixB3Y#0001</v>
+        <v>EurLiborSwapIsdaFixB3Y#0002</v>
       </c>
       <c r="H9" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G9)</f>
@@ -3459,7 +3459,7 @@
       </c>
       <c r="G10" s="41" t="str">
         <f>_xll.qlLiborSwap($F10,Currency,FixingType,$C10,Currency&amp;$D10,Currency&amp;$E10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixB4Y#0001</v>
+        <v>EurLiborSwapIsdaFixB4Y#0002</v>
       </c>
       <c r="H10" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G10)</f>
@@ -3484,7 +3484,7 @@
       </c>
       <c r="G11" s="41" t="str">
         <f>_xll.qlLiborSwap($F11,Currency,FixingType,$C11,Currency&amp;$D11,Currency&amp;$E11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixB5Y#0001</v>
+        <v>EurLiborSwapIsdaFixB5Y#0002</v>
       </c>
       <c r="H11" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G11)</f>
@@ -3509,7 +3509,7 @@
       </c>
       <c r="G12" s="41" t="str">
         <f>_xll.qlLiborSwap($F12,Currency,FixingType,$C12,Currency&amp;$D12,Currency&amp;$E12,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixB6Y#0001</v>
+        <v>EurLiborSwapIsdaFixB6Y#0002</v>
       </c>
       <c r="H12" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G12)</f>
@@ -3534,7 +3534,7 @@
       </c>
       <c r="G13" s="41" t="str">
         <f>_xll.qlLiborSwap($F13,Currency,FixingType,$C13,Currency&amp;$D13,Currency&amp;$E13,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixB7Y#0001</v>
+        <v>EurLiborSwapIsdaFixB7Y#0002</v>
       </c>
       <c r="H13" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G13)</f>
@@ -3559,7 +3559,7 @@
       </c>
       <c r="G14" s="41" t="str">
         <f>_xll.qlLiborSwap($F14,Currency,FixingType,$C14,Currency&amp;$D14,Currency&amp;$E14,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixB8Y#0001</v>
+        <v>EurLiborSwapIsdaFixB8Y#0002</v>
       </c>
       <c r="H14" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G14)</f>
@@ -3584,7 +3584,7 @@
       </c>
       <c r="G15" s="41" t="str">
         <f>_xll.qlLiborSwap($F15,Currency,FixingType,$C15,Currency&amp;$D15,Currency&amp;$E15,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixB9Y#0001</v>
+        <v>EurLiborSwapIsdaFixB9Y#0002</v>
       </c>
       <c r="H15" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G15)</f>
@@ -3609,7 +3609,7 @@
       </c>
       <c r="G16" s="41" t="str">
         <f>_xll.qlLiborSwap($F16,Currency,FixingType,$C16,Currency&amp;$D16,Currency&amp;$E16,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixB10Y#0001</v>
+        <v>EurLiborSwapIsdaFixB10Y#0002</v>
       </c>
       <c r="H16" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G16)</f>
@@ -3634,7 +3634,7 @@
       </c>
       <c r="G17" s="41" t="str">
         <f>_xll.qlLiborSwap($F17,Currency,FixingType,$C17,Currency&amp;$D17,Currency&amp;$E17,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixB11Y#0001</v>
+        <v>EurLiborSwapIsdaFixB11Y#0002</v>
       </c>
       <c r="H17" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G17)</f>
@@ -3659,7 +3659,7 @@
       </c>
       <c r="G18" s="41" t="str">
         <f>_xll.qlLiborSwap($F18,Currency,FixingType,$C18,Currency&amp;$D18,Currency&amp;$E18,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixB12Y#0001</v>
+        <v>EurLiborSwapIsdaFixB12Y#0002</v>
       </c>
       <c r="H18" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G18)</f>
@@ -3684,7 +3684,7 @@
       </c>
       <c r="G19" s="41" t="str">
         <f>_xll.qlLiborSwap($F19,Currency,FixingType,$C19,Currency&amp;$D19,Currency&amp;$E19,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixB13Y#0001</v>
+        <v>EurLiborSwapIsdaFixB13Y#0002</v>
       </c>
       <c r="H19" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G19)</f>
@@ -3709,7 +3709,7 @@
       </c>
       <c r="G20" s="41" t="str">
         <f>_xll.qlLiborSwap($F20,Currency,FixingType,$C20,Currency&amp;$D20,Currency&amp;$E20,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixB14Y#0001</v>
+        <v>EurLiborSwapIsdaFixB14Y#0002</v>
       </c>
       <c r="H20" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G20)</f>
@@ -3734,7 +3734,7 @@
       </c>
       <c r="G21" s="41" t="str">
         <f>_xll.qlLiborSwap($F21,Currency,FixingType,$C21,Currency&amp;$D21,Currency&amp;$E21,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixB15Y#0001</v>
+        <v>EurLiborSwapIsdaFixB15Y#0002</v>
       </c>
       <c r="H21" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G21)</f>
@@ -3759,7 +3759,7 @@
       </c>
       <c r="G22" s="41" t="str">
         <f>_xll.qlLiborSwap($F22,Currency,FixingType,$C22,Currency&amp;$D22,Currency&amp;$E22,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixB16Y#0001</v>
+        <v>EurLiborSwapIsdaFixB16Y#0002</v>
       </c>
       <c r="H22" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G22)</f>
@@ -3784,7 +3784,7 @@
       </c>
       <c r="G23" s="41" t="str">
         <f>_xll.qlLiborSwap($F23,Currency,FixingType,$C23,Currency&amp;$D23,Currency&amp;$E23,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixB17Y#0001</v>
+        <v>EurLiborSwapIsdaFixB17Y#0002</v>
       </c>
       <c r="H23" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G23)</f>
@@ -3809,7 +3809,7 @@
       </c>
       <c r="G24" s="41" t="str">
         <f>_xll.qlLiborSwap($F24,Currency,FixingType,$C24,Currency&amp;$D24,Currency&amp;$E24,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixB18Y#0001</v>
+        <v>EurLiborSwapIsdaFixB18Y#0002</v>
       </c>
       <c r="H24" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G24)</f>
@@ -3834,7 +3834,7 @@
       </c>
       <c r="G25" s="41" t="str">
         <f>_xll.qlLiborSwap($F25,Currency,FixingType,$C25,Currency&amp;$D25,Currency&amp;$E25,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixB19Y#0001</v>
+        <v>EurLiborSwapIsdaFixB19Y#0002</v>
       </c>
       <c r="H25" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G25)</f>
@@ -3859,7 +3859,7 @@
       </c>
       <c r="G26" s="41" t="str">
         <f>_xll.qlLiborSwap($F26,Currency,FixingType,$C26,Currency&amp;$D26,Currency&amp;$E26,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixB20Y#0001</v>
+        <v>EurLiborSwapIsdaFixB20Y#0002</v>
       </c>
       <c r="H26" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G26)</f>
@@ -3884,7 +3884,7 @@
       </c>
       <c r="G27" s="41" t="str">
         <f>_xll.qlLiborSwap($F27,Currency,FixingType,$C27,Currency&amp;$D27,Currency&amp;$E27,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixB21Y#0001</v>
+        <v>EurLiborSwapIsdaFixB21Y#0002</v>
       </c>
       <c r="H27" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G27)</f>
@@ -3909,7 +3909,7 @@
       </c>
       <c r="G28" s="41" t="str">
         <f>_xll.qlLiborSwap($F28,Currency,FixingType,$C28,Currency&amp;$D28,Currency&amp;$E28,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixB22Y#0001</v>
+        <v>EurLiborSwapIsdaFixB22Y#0002</v>
       </c>
       <c r="H28" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G28)</f>
@@ -3934,7 +3934,7 @@
       </c>
       <c r="G29" s="41" t="str">
         <f>_xll.qlLiborSwap($F29,Currency,FixingType,$C29,Currency&amp;$D29,Currency&amp;$E29,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixB23Y#0001</v>
+        <v>EurLiborSwapIsdaFixB23Y#0002</v>
       </c>
       <c r="H29" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G29)</f>
@@ -3959,7 +3959,7 @@
       </c>
       <c r="G30" s="41" t="str">
         <f>_xll.qlLiborSwap($F30,Currency,FixingType,$C30,Currency&amp;$D30,Currency&amp;$E30,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixB24Y#0001</v>
+        <v>EurLiborSwapIsdaFixB24Y#0002</v>
       </c>
       <c r="H30" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G30)</f>
@@ -3984,7 +3984,7 @@
       </c>
       <c r="G31" s="41" t="str">
         <f>_xll.qlLiborSwap($F31,Currency,FixingType,$C31,Currency&amp;$D31,Currency&amp;$E31,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixB25Y#0001</v>
+        <v>EurLiborSwapIsdaFixB25Y#0002</v>
       </c>
       <c r="H31" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G31)</f>
@@ -4009,7 +4009,7 @@
       </c>
       <c r="G32" s="41" t="str">
         <f>_xll.qlLiborSwap($F32,Currency,FixingType,$C32,Currency&amp;$D32,Currency&amp;$E32,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixB26Y#0001</v>
+        <v>EurLiborSwapIsdaFixB26Y#0002</v>
       </c>
       <c r="H32" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G32)</f>
@@ -4034,7 +4034,7 @@
       </c>
       <c r="G33" s="41" t="str">
         <f>_xll.qlLiborSwap($F33,Currency,FixingType,$C33,Currency&amp;$D33,Currency&amp;$E33,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixB27Y#0001</v>
+        <v>EurLiborSwapIsdaFixB27Y#0002</v>
       </c>
       <c r="H33" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G33)</f>
@@ -4059,7 +4059,7 @@
       </c>
       <c r="G34" s="41" t="str">
         <f>_xll.qlLiborSwap($F34,Currency,FixingType,$C34,Currency&amp;$D34,Currency&amp;$E34,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixB28Y#0001</v>
+        <v>EurLiborSwapIsdaFixB28Y#0002</v>
       </c>
       <c r="H34" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G34)</f>
@@ -4084,7 +4084,7 @@
       </c>
       <c r="G35" s="41" t="str">
         <f>_xll.qlLiborSwap($F35,Currency,FixingType,$C35,Currency&amp;$D35,Currency&amp;$E35,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixB29Y#0001</v>
+        <v>EurLiborSwapIsdaFixB29Y#0002</v>
       </c>
       <c r="H35" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G35)</f>
@@ -4109,7 +4109,7 @@
       </c>
       <c r="G36" s="41" t="str">
         <f>_xll.qlLiborSwap($F36,Currency,FixingType,$C36,Currency&amp;$D36,Currency&amp;$E36,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixB30Y#0001</v>
+        <v>EurLiborSwapIsdaFixB30Y#0002</v>
       </c>
       <c r="H36" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G36)</f>
@@ -4134,7 +4134,7 @@
       </c>
       <c r="G37" s="41" t="str">
         <f>_xll.qlLiborSwap($F37,Currency,FixingType,$C37,Currency&amp;$D37,Currency&amp;$E37,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixB31Y#0001</v>
+        <v>EurLiborSwapIsdaFixB31Y#0002</v>
       </c>
       <c r="H37" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G37)</f>
@@ -4159,7 +4159,7 @@
       </c>
       <c r="G38" s="41" t="str">
         <f>_xll.qlLiborSwap($F38,Currency,FixingType,$C38,Currency&amp;$D38,Currency&amp;$E38,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixB32Y#0001</v>
+        <v>EurLiborSwapIsdaFixB32Y#0002</v>
       </c>
       <c r="H38" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G38)</f>
@@ -4184,7 +4184,7 @@
       </c>
       <c r="G39" s="41" t="str">
         <f>_xll.qlLiborSwap($F39,Currency,FixingType,$C39,Currency&amp;$D39,Currency&amp;$E39,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixB33Y#0001</v>
+        <v>EurLiborSwapIsdaFixB33Y#0002</v>
       </c>
       <c r="H39" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G39)</f>
@@ -4209,7 +4209,7 @@
       </c>
       <c r="G40" s="41" t="str">
         <f>_xll.qlLiborSwap($F40,Currency,FixingType,$C40,Currency&amp;$D40,Currency&amp;$E40,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixB34Y#0001</v>
+        <v>EurLiborSwapIsdaFixB34Y#0002</v>
       </c>
       <c r="H40" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G40)</f>
@@ -4234,7 +4234,7 @@
       </c>
       <c r="G41" s="41" t="str">
         <f>_xll.qlLiborSwap($F41,Currency,FixingType,$C41,Currency&amp;$D41,Currency&amp;$E41,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixB35Y#0001</v>
+        <v>EurLiborSwapIsdaFixB35Y#0002</v>
       </c>
       <c r="H41" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G41)</f>
@@ -4259,7 +4259,7 @@
       </c>
       <c r="G42" s="41" t="str">
         <f>_xll.qlLiborSwap($F42,Currency,FixingType,$C42,Currency&amp;$D42,Currency&amp;$E42,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixB36Y#0001</v>
+        <v>EurLiborSwapIsdaFixB36Y#0002</v>
       </c>
       <c r="H42" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G42)</f>
@@ -4284,7 +4284,7 @@
       </c>
       <c r="G43" s="41" t="str">
         <f>_xll.qlLiborSwap($F43,Currency,FixingType,$C43,Currency&amp;$D43,Currency&amp;$E43,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixB37Y#0001</v>
+        <v>EurLiborSwapIsdaFixB37Y#0002</v>
       </c>
       <c r="H43" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G43)</f>
@@ -4309,7 +4309,7 @@
       </c>
       <c r="G44" s="41" t="str">
         <f>_xll.qlLiborSwap($F44,Currency,FixingType,$C44,Currency&amp;$D44,Currency&amp;$E44,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixB38Y#0001</v>
+        <v>EurLiborSwapIsdaFixB38Y#0002</v>
       </c>
       <c r="H44" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G44)</f>
@@ -4334,7 +4334,7 @@
       </c>
       <c r="G45" s="41" t="str">
         <f>_xll.qlLiborSwap($F45,Currency,FixingType,$C45,Currency&amp;$D45,Currency&amp;$E45,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixB39Y#0001</v>
+        <v>EurLiborSwapIsdaFixB39Y#0002</v>
       </c>
       <c r="H45" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G45)</f>
@@ -4359,7 +4359,7 @@
       </c>
       <c r="G46" s="41" t="str">
         <f>_xll.qlLiborSwap($F46,Currency,FixingType,$C46,Currency&amp;$D46,Currency&amp;$E46,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixB40Y#0001</v>
+        <v>EurLiborSwapIsdaFixB40Y#0002</v>
       </c>
       <c r="H46" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G46)</f>
@@ -4384,7 +4384,7 @@
       </c>
       <c r="G47" s="41" t="str">
         <f>_xll.qlLiborSwap($F47,Currency,FixingType,$C47,Currency&amp;$D47,Currency&amp;$E47,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixB41Y#0001</v>
+        <v>EurLiborSwapIsdaFixB41Y#0002</v>
       </c>
       <c r="H47" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G47)</f>
@@ -4409,7 +4409,7 @@
       </c>
       <c r="G48" s="41" t="str">
         <f>_xll.qlLiborSwap($F48,Currency,FixingType,$C48,Currency&amp;$D48,Currency&amp;$E48,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixB42Y#0001</v>
+        <v>EurLiborSwapIsdaFixB42Y#0002</v>
       </c>
       <c r="H48" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G48)</f>
@@ -4434,7 +4434,7 @@
       </c>
       <c r="G49" s="41" t="str">
         <f>_xll.qlLiborSwap($F49,Currency,FixingType,$C49,Currency&amp;$D49,Currency&amp;$E49,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixB43Y#0001</v>
+        <v>EurLiborSwapIsdaFixB43Y#0002</v>
       </c>
       <c r="H49" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G49)</f>
@@ -4459,7 +4459,7 @@
       </c>
       <c r="G50" s="41" t="str">
         <f>_xll.qlLiborSwap($F50,Currency,FixingType,$C50,Currency&amp;$D50,Currency&amp;$E50,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixB44Y#0001</v>
+        <v>EurLiborSwapIsdaFixB44Y#0002</v>
       </c>
       <c r="H50" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G50)</f>
@@ -4484,7 +4484,7 @@
       </c>
       <c r="G51" s="41" t="str">
         <f>_xll.qlLiborSwap($F51,Currency,FixingType,$C51,Currency&amp;$D51,Currency&amp;$E51,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixB45Y#0001</v>
+        <v>EurLiborSwapIsdaFixB45Y#0002</v>
       </c>
       <c r="H51" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G51)</f>
@@ -4509,7 +4509,7 @@
       </c>
       <c r="G52" s="41" t="str">
         <f>_xll.qlLiborSwap($F52,Currency,FixingType,$C52,Currency&amp;$D52,Currency&amp;$E52,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixB46Y#0001</v>
+        <v>EurLiborSwapIsdaFixB46Y#0002</v>
       </c>
       <c r="H52" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G52)</f>
@@ -4534,7 +4534,7 @@
       </c>
       <c r="G53" s="41" t="str">
         <f>_xll.qlLiborSwap($F53,Currency,FixingType,$C53,Currency&amp;$D53,Currency&amp;$E53,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixB47Y#0001</v>
+        <v>EurLiborSwapIsdaFixB47Y#0002</v>
       </c>
       <c r="H53" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G53)</f>
@@ -4559,7 +4559,7 @@
       </c>
       <c r="G54" s="41" t="str">
         <f>_xll.qlLiborSwap($F54,Currency,FixingType,$C54,Currency&amp;$D54,Currency&amp;$E54,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixB48Y#0001</v>
+        <v>EurLiborSwapIsdaFixB48Y#0002</v>
       </c>
       <c r="H54" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G54)</f>
@@ -4584,7 +4584,7 @@
       </c>
       <c r="G55" s="41" t="str">
         <f>_xll.qlLiborSwap($F55,Currency,FixingType,$C55,Currency&amp;$D55,Currency&amp;$E55,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixB49Y#0001</v>
+        <v>EurLiborSwapIsdaFixB49Y#0002</v>
       </c>
       <c r="H55" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G55)</f>
@@ -4609,7 +4609,7 @@
       </c>
       <c r="G56" s="41" t="str">
         <f>_xll.qlLiborSwap($F56,Currency,FixingType,$C56,Currency&amp;$D56,Currency&amp;$E56,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixB50Y#0001</v>
+        <v>EurLiborSwapIsdaFixB50Y#0002</v>
       </c>
       <c r="H56" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G56)</f>
@@ -4634,7 +4634,7 @@
       </c>
       <c r="G57" s="41" t="str">
         <f>_xll.qlLiborSwap($F57,Currency,FixingType,$C57,Currency&amp;$D57,Currency&amp;$E57,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixB51Y#0001</v>
+        <v>EurLiborSwapIsdaFixB51Y#0002</v>
       </c>
       <c r="H57" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G57)</f>
@@ -4659,7 +4659,7 @@
       </c>
       <c r="G58" s="41" t="str">
         <f>_xll.qlLiborSwap($F58,Currency,FixingType,$C58,Currency&amp;$D58,Currency&amp;$E58,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixB52Y#0001</v>
+        <v>EurLiborSwapIsdaFixB52Y#0002</v>
       </c>
       <c r="H58" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G58)</f>
@@ -4684,7 +4684,7 @@
       </c>
       <c r="G59" s="41" t="str">
         <f>_xll.qlLiborSwap($F59,Currency,FixingType,$C59,Currency&amp;$D59,Currency&amp;$E59,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixB53Y#0001</v>
+        <v>EurLiborSwapIsdaFixB53Y#0002</v>
       </c>
       <c r="H59" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G59)</f>
@@ -4709,7 +4709,7 @@
       </c>
       <c r="G60" s="41" t="str">
         <f>_xll.qlLiborSwap($F60,Currency,FixingType,$C60,Currency&amp;$D60,Currency&amp;$E60,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixB54Y#0001</v>
+        <v>EurLiborSwapIsdaFixB54Y#0002</v>
       </c>
       <c r="H60" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G60)</f>
@@ -4734,7 +4734,7 @@
       </c>
       <c r="G61" s="41" t="str">
         <f>_xll.qlLiborSwap($F61,Currency,FixingType,$C61,Currency&amp;$D61,Currency&amp;$E61,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixB55Y#0001</v>
+        <v>EurLiborSwapIsdaFixB55Y#0002</v>
       </c>
       <c r="H61" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G61)</f>
@@ -4759,7 +4759,7 @@
       </c>
       <c r="G62" s="41" t="str">
         <f>_xll.qlLiborSwap($F62,Currency,FixingType,$C62,Currency&amp;$D62,Currency&amp;$E62,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixB56Y#0001</v>
+        <v>EurLiborSwapIsdaFixB56Y#0002</v>
       </c>
       <c r="H62" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G62)</f>
@@ -4784,7 +4784,7 @@
       </c>
       <c r="G63" s="41" t="str">
         <f>_xll.qlLiborSwap($F63,Currency,FixingType,$C63,Currency&amp;$D63,Currency&amp;$E63,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixB57Y#0001</v>
+        <v>EurLiborSwapIsdaFixB57Y#0002</v>
       </c>
       <c r="H63" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G63)</f>
@@ -4809,7 +4809,7 @@
       </c>
       <c r="G64" s="41" t="str">
         <f>_xll.qlLiborSwap($F64,Currency,FixingType,$C64,Currency&amp;$D64,Currency&amp;$E64,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixB58Y#0001</v>
+        <v>EurLiborSwapIsdaFixB58Y#0002</v>
       </c>
       <c r="H64" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G64)</f>
@@ -4834,7 +4834,7 @@
       </c>
       <c r="G65" s="41" t="str">
         <f>_xll.qlLiborSwap($F65,Currency,FixingType,$C65,Currency&amp;$D65,Currency&amp;$E65,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixB59Y#0001</v>
+        <v>EurLiborSwapIsdaFixB59Y#0002</v>
       </c>
       <c r="H65" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G65)</f>
@@ -4859,7 +4859,7 @@
       </c>
       <c r="G66" s="41" t="str">
         <f>_xll.qlLiborSwap($F66,Currency,FixingType,$C66,Currency&amp;$D66,Currency&amp;$E66,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIsdaFixB60Y#0001</v>
+        <v>EurLiborSwapIsdaFixB60Y#0002</v>
       </c>
       <c r="H66" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G66)</f>
@@ -4971,13 +4971,13 @@
         <f>PROPER(Currency)&amp;FamilyName&amp;FixingType&amp;".xml"</f>
         <v>EurLiborSwapIfrFix.xml</v>
       </c>
-      <c r="G6" s="34" t="e">
-        <f ca="1">IF(Serialize,_xll.ohObjectSave(G7:G66,SerializationPath&amp;FileName,FileOverwrite,Serialize),"---")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="H6" s="37" t="e">
+      <c r="G6" s="34">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(G7:G66,SerializationPath&amp;FileName,FileOverwrite,,Serialize),"---")</f>
+        <v>60</v>
+      </c>
+      <c r="H6" s="37" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(G6)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="I6" s="35"/>
     </row>
@@ -4998,7 +4998,7 @@
       </c>
       <c r="G7" s="41" t="str">
         <f>_xll.qlLiborSwap($F7,Currency,FixingType,$C7,Currency&amp;$D7,Currency&amp;$E7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIfrFix1Y#0001</v>
+        <v>EurLiborSwapIfrFix1Y#0002</v>
       </c>
       <c r="H7" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G7)</f>
@@ -5023,7 +5023,7 @@
       </c>
       <c r="G8" s="41" t="str">
         <f>_xll.qlLiborSwap($F8,Currency,FixingType,$C8,Currency&amp;$D8,Currency&amp;$E8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIfrFix2Y#0001</v>
+        <v>EurLiborSwapIfrFix2Y#0002</v>
       </c>
       <c r="H8" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G8)</f>
@@ -5048,7 +5048,7 @@
       </c>
       <c r="G9" s="41" t="str">
         <f>_xll.qlLiborSwap($F9,Currency,FixingType,$C9,Currency&amp;$D9,Currency&amp;$E9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIfrFix3Y#0001</v>
+        <v>EurLiborSwapIfrFix3Y#0002</v>
       </c>
       <c r="H9" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G9)</f>
@@ -5073,7 +5073,7 @@
       </c>
       <c r="G10" s="41" t="str">
         <f>_xll.qlLiborSwap($F10,Currency,FixingType,$C10,Currency&amp;$D10,Currency&amp;$E10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIfrFix4Y#0001</v>
+        <v>EurLiborSwapIfrFix4Y#0002</v>
       </c>
       <c r="H10" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G10)</f>
@@ -5098,7 +5098,7 @@
       </c>
       <c r="G11" s="41" t="str">
         <f>_xll.qlLiborSwap($F11,Currency,FixingType,$C11,Currency&amp;$D11,Currency&amp;$E11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIfrFix5Y#0001</v>
+        <v>EurLiborSwapIfrFix5Y#0002</v>
       </c>
       <c r="H11" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G11)</f>
@@ -5123,7 +5123,7 @@
       </c>
       <c r="G12" s="41" t="str">
         <f>_xll.qlLiborSwap($F12,Currency,FixingType,$C12,Currency&amp;$D12,Currency&amp;$E12,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIfrFix6Y#0001</v>
+        <v>EurLiborSwapIfrFix6Y#0002</v>
       </c>
       <c r="H12" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G12)</f>
@@ -5148,7 +5148,7 @@
       </c>
       <c r="G13" s="41" t="str">
         <f>_xll.qlLiborSwap($F13,Currency,FixingType,$C13,Currency&amp;$D13,Currency&amp;$E13,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIfrFix7Y#0001</v>
+        <v>EurLiborSwapIfrFix7Y#0002</v>
       </c>
       <c r="H13" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G13)</f>
@@ -5173,7 +5173,7 @@
       </c>
       <c r="G14" s="41" t="str">
         <f>_xll.qlLiborSwap($F14,Currency,FixingType,$C14,Currency&amp;$D14,Currency&amp;$E14,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIfrFix8Y#0001</v>
+        <v>EurLiborSwapIfrFix8Y#0002</v>
       </c>
       <c r="H14" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G14)</f>
@@ -5198,7 +5198,7 @@
       </c>
       <c r="G15" s="41" t="str">
         <f>_xll.qlLiborSwap($F15,Currency,FixingType,$C15,Currency&amp;$D15,Currency&amp;$E15,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIfrFix9Y#0001</v>
+        <v>EurLiborSwapIfrFix9Y#0002</v>
       </c>
       <c r="H15" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G15)</f>
@@ -5223,7 +5223,7 @@
       </c>
       <c r="G16" s="41" t="str">
         <f>_xll.qlLiborSwap($F16,Currency,FixingType,$C16,Currency&amp;$D16,Currency&amp;$E16,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIfrFix10Y#0001</v>
+        <v>EurLiborSwapIfrFix10Y#0002</v>
       </c>
       <c r="H16" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G16)</f>
@@ -5248,7 +5248,7 @@
       </c>
       <c r="G17" s="41" t="str">
         <f>_xll.qlLiborSwap($F17,Currency,FixingType,$C17,Currency&amp;$D17,Currency&amp;$E17,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIfrFix11Y#0001</v>
+        <v>EurLiborSwapIfrFix11Y#0002</v>
       </c>
       <c r="H17" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G17)</f>
@@ -5273,7 +5273,7 @@
       </c>
       <c r="G18" s="41" t="str">
         <f>_xll.qlLiborSwap($F18,Currency,FixingType,$C18,Currency&amp;$D18,Currency&amp;$E18,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIfrFix12Y#0001</v>
+        <v>EurLiborSwapIfrFix12Y#0002</v>
       </c>
       <c r="H18" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G18)</f>
@@ -5298,7 +5298,7 @@
       </c>
       <c r="G19" s="41" t="str">
         <f>_xll.qlLiborSwap($F19,Currency,FixingType,$C19,Currency&amp;$D19,Currency&amp;$E19,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIfrFix13Y#0001</v>
+        <v>EurLiborSwapIfrFix13Y#0002</v>
       </c>
       <c r="H19" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G19)</f>
@@ -5323,7 +5323,7 @@
       </c>
       <c r="G20" s="41" t="str">
         <f>_xll.qlLiborSwap($F20,Currency,FixingType,$C20,Currency&amp;$D20,Currency&amp;$E20,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIfrFix14Y#0001</v>
+        <v>EurLiborSwapIfrFix14Y#0002</v>
       </c>
       <c r="H20" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G20)</f>
@@ -5348,7 +5348,7 @@
       </c>
       <c r="G21" s="41" t="str">
         <f>_xll.qlLiborSwap($F21,Currency,FixingType,$C21,Currency&amp;$D21,Currency&amp;$E21,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIfrFix15Y#0001</v>
+        <v>EurLiborSwapIfrFix15Y#0002</v>
       </c>
       <c r="H21" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G21)</f>
@@ -5373,7 +5373,7 @@
       </c>
       <c r="G22" s="41" t="str">
         <f>_xll.qlLiborSwap($F22,Currency,FixingType,$C22,Currency&amp;$D22,Currency&amp;$E22,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIfrFix16Y#0001</v>
+        <v>EurLiborSwapIfrFix16Y#0002</v>
       </c>
       <c r="H22" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G22)</f>
@@ -5398,7 +5398,7 @@
       </c>
       <c r="G23" s="41" t="str">
         <f>_xll.qlLiborSwap($F23,Currency,FixingType,$C23,Currency&amp;$D23,Currency&amp;$E23,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIfrFix17Y#0001</v>
+        <v>EurLiborSwapIfrFix17Y#0002</v>
       </c>
       <c r="H23" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G23)</f>
@@ -5423,7 +5423,7 @@
       </c>
       <c r="G24" s="41" t="str">
         <f>_xll.qlLiborSwap($F24,Currency,FixingType,$C24,Currency&amp;$D24,Currency&amp;$E24,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIfrFix18Y#0001</v>
+        <v>EurLiborSwapIfrFix18Y#0002</v>
       </c>
       <c r="H24" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G24)</f>
@@ -5448,7 +5448,7 @@
       </c>
       <c r="G25" s="41" t="str">
         <f>_xll.qlLiborSwap($F25,Currency,FixingType,$C25,Currency&amp;$D25,Currency&amp;$E25,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIfrFix19Y#0001</v>
+        <v>EurLiborSwapIfrFix19Y#0002</v>
       </c>
       <c r="H25" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G25)</f>
@@ -5473,7 +5473,7 @@
       </c>
       <c r="G26" s="41" t="str">
         <f>_xll.qlLiborSwap($F26,Currency,FixingType,$C26,Currency&amp;$D26,Currency&amp;$E26,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIfrFix20Y#0001</v>
+        <v>EurLiborSwapIfrFix20Y#0002</v>
       </c>
       <c r="H26" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G26)</f>
@@ -5498,7 +5498,7 @@
       </c>
       <c r="G27" s="41" t="str">
         <f>_xll.qlLiborSwap($F27,Currency,FixingType,$C27,Currency&amp;$D27,Currency&amp;$E27,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIfrFix21Y#0001</v>
+        <v>EurLiborSwapIfrFix21Y#0002</v>
       </c>
       <c r="H27" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G27)</f>
@@ -5523,7 +5523,7 @@
       </c>
       <c r="G28" s="41" t="str">
         <f>_xll.qlLiborSwap($F28,Currency,FixingType,$C28,Currency&amp;$D28,Currency&amp;$E28,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIfrFix22Y#0001</v>
+        <v>EurLiborSwapIfrFix22Y#0002</v>
       </c>
       <c r="H28" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G28)</f>
@@ -5548,7 +5548,7 @@
       </c>
       <c r="G29" s="41" t="str">
         <f>_xll.qlLiborSwap($F29,Currency,FixingType,$C29,Currency&amp;$D29,Currency&amp;$E29,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIfrFix23Y#0001</v>
+        <v>EurLiborSwapIfrFix23Y#0002</v>
       </c>
       <c r="H29" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G29)</f>
@@ -5573,7 +5573,7 @@
       </c>
       <c r="G30" s="41" t="str">
         <f>_xll.qlLiborSwap($F30,Currency,FixingType,$C30,Currency&amp;$D30,Currency&amp;$E30,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIfrFix24Y#0001</v>
+        <v>EurLiborSwapIfrFix24Y#0002</v>
       </c>
       <c r="H30" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G30)</f>
@@ -5598,7 +5598,7 @@
       </c>
       <c r="G31" s="41" t="str">
         <f>_xll.qlLiborSwap($F31,Currency,FixingType,$C31,Currency&amp;$D31,Currency&amp;$E31,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIfrFix25Y#0001</v>
+        <v>EurLiborSwapIfrFix25Y#0002</v>
       </c>
       <c r="H31" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G31)</f>
@@ -5623,7 +5623,7 @@
       </c>
       <c r="G32" s="41" t="str">
         <f>_xll.qlLiborSwap($F32,Currency,FixingType,$C32,Currency&amp;$D32,Currency&amp;$E32,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIfrFix26Y#0001</v>
+        <v>EurLiborSwapIfrFix26Y#0002</v>
       </c>
       <c r="H32" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G32)</f>
@@ -5648,7 +5648,7 @@
       </c>
       <c r="G33" s="41" t="str">
         <f>_xll.qlLiborSwap($F33,Currency,FixingType,$C33,Currency&amp;$D33,Currency&amp;$E33,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIfrFix27Y#0001</v>
+        <v>EurLiborSwapIfrFix27Y#0002</v>
       </c>
       <c r="H33" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G33)</f>
@@ -5673,7 +5673,7 @@
       </c>
       <c r="G34" s="41" t="str">
         <f>_xll.qlLiborSwap($F34,Currency,FixingType,$C34,Currency&amp;$D34,Currency&amp;$E34,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIfrFix28Y#0001</v>
+        <v>EurLiborSwapIfrFix28Y#0002</v>
       </c>
       <c r="H34" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G34)</f>
@@ -5698,7 +5698,7 @@
       </c>
       <c r="G35" s="41" t="str">
         <f>_xll.qlLiborSwap($F35,Currency,FixingType,$C35,Currency&amp;$D35,Currency&amp;$E35,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIfrFix29Y#0001</v>
+        <v>EurLiborSwapIfrFix29Y#0002</v>
       </c>
       <c r="H35" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G35)</f>
@@ -5723,7 +5723,7 @@
       </c>
       <c r="G36" s="41" t="str">
         <f>_xll.qlLiborSwap($F36,Currency,FixingType,$C36,Currency&amp;$D36,Currency&amp;$E36,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIfrFix30Y#0001</v>
+        <v>EurLiborSwapIfrFix30Y#0002</v>
       </c>
       <c r="H36" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G36)</f>
@@ -5748,7 +5748,7 @@
       </c>
       <c r="G37" s="41" t="str">
         <f>_xll.qlLiborSwap($F37,Currency,FixingType,$C37,Currency&amp;$D37,Currency&amp;$E37,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIfrFix31Y#0001</v>
+        <v>EurLiborSwapIfrFix31Y#0002</v>
       </c>
       <c r="H37" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G37)</f>
@@ -5773,7 +5773,7 @@
       </c>
       <c r="G38" s="41" t="str">
         <f>_xll.qlLiborSwap($F38,Currency,FixingType,$C38,Currency&amp;$D38,Currency&amp;$E38,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIfrFix32Y#0001</v>
+        <v>EurLiborSwapIfrFix32Y#0002</v>
       </c>
       <c r="H38" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G38)</f>
@@ -5798,7 +5798,7 @@
       </c>
       <c r="G39" s="41" t="str">
         <f>_xll.qlLiborSwap($F39,Currency,FixingType,$C39,Currency&amp;$D39,Currency&amp;$E39,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIfrFix33Y#0001</v>
+        <v>EurLiborSwapIfrFix33Y#0002</v>
       </c>
       <c r="H39" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G39)</f>
@@ -5823,7 +5823,7 @@
       </c>
       <c r="G40" s="41" t="str">
         <f>_xll.qlLiborSwap($F40,Currency,FixingType,$C40,Currency&amp;$D40,Currency&amp;$E40,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIfrFix34Y#0001</v>
+        <v>EurLiborSwapIfrFix34Y#0002</v>
       </c>
       <c r="H40" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G40)</f>
@@ -5848,7 +5848,7 @@
       </c>
       <c r="G41" s="41" t="str">
         <f>_xll.qlLiborSwap($F41,Currency,FixingType,$C41,Currency&amp;$D41,Currency&amp;$E41,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIfrFix35Y#0001</v>
+        <v>EurLiborSwapIfrFix35Y#0002</v>
       </c>
       <c r="H41" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G41)</f>
@@ -5873,7 +5873,7 @@
       </c>
       <c r="G42" s="41" t="str">
         <f>_xll.qlLiborSwap($F42,Currency,FixingType,$C42,Currency&amp;$D42,Currency&amp;$E42,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIfrFix36Y#0001</v>
+        <v>EurLiborSwapIfrFix36Y#0002</v>
       </c>
       <c r="H42" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G42)</f>
@@ -5898,7 +5898,7 @@
       </c>
       <c r="G43" s="41" t="str">
         <f>_xll.qlLiborSwap($F43,Currency,FixingType,$C43,Currency&amp;$D43,Currency&amp;$E43,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIfrFix37Y#0001</v>
+        <v>EurLiborSwapIfrFix37Y#0002</v>
       </c>
       <c r="H43" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G43)</f>
@@ -5923,7 +5923,7 @@
       </c>
       <c r="G44" s="41" t="str">
         <f>_xll.qlLiborSwap($F44,Currency,FixingType,$C44,Currency&amp;$D44,Currency&amp;$E44,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIfrFix38Y#0001</v>
+        <v>EurLiborSwapIfrFix38Y#0002</v>
       </c>
       <c r="H44" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G44)</f>
@@ -5948,7 +5948,7 @@
       </c>
       <c r="G45" s="41" t="str">
         <f>_xll.qlLiborSwap($F45,Currency,FixingType,$C45,Currency&amp;$D45,Currency&amp;$E45,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIfrFix39Y#0001</v>
+        <v>EurLiborSwapIfrFix39Y#0002</v>
       </c>
       <c r="H45" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G45)</f>
@@ -5973,7 +5973,7 @@
       </c>
       <c r="G46" s="41" t="str">
         <f>_xll.qlLiborSwap($F46,Currency,FixingType,$C46,Currency&amp;$D46,Currency&amp;$E46,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIfrFix40Y#0001</v>
+        <v>EurLiborSwapIfrFix40Y#0002</v>
       </c>
       <c r="H46" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G46)</f>
@@ -5998,7 +5998,7 @@
       </c>
       <c r="G47" s="41" t="str">
         <f>_xll.qlLiborSwap($F47,Currency,FixingType,$C47,Currency&amp;$D47,Currency&amp;$E47,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIfrFix41Y#0001</v>
+        <v>EurLiborSwapIfrFix41Y#0002</v>
       </c>
       <c r="H47" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G47)</f>
@@ -6023,7 +6023,7 @@
       </c>
       <c r="G48" s="41" t="str">
         <f>_xll.qlLiborSwap($F48,Currency,FixingType,$C48,Currency&amp;$D48,Currency&amp;$E48,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIfrFix42Y#0001</v>
+        <v>EurLiborSwapIfrFix42Y#0002</v>
       </c>
       <c r="H48" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G48)</f>
@@ -6048,7 +6048,7 @@
       </c>
       <c r="G49" s="41" t="str">
         <f>_xll.qlLiborSwap($F49,Currency,FixingType,$C49,Currency&amp;$D49,Currency&amp;$E49,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIfrFix43Y#0001</v>
+        <v>EurLiborSwapIfrFix43Y#0002</v>
       </c>
       <c r="H49" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G49)</f>
@@ -6073,7 +6073,7 @@
       </c>
       <c r="G50" s="41" t="str">
         <f>_xll.qlLiborSwap($F50,Currency,FixingType,$C50,Currency&amp;$D50,Currency&amp;$E50,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIfrFix44Y#0001</v>
+        <v>EurLiborSwapIfrFix44Y#0002</v>
       </c>
       <c r="H50" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G50)</f>
@@ -6098,7 +6098,7 @@
       </c>
       <c r="G51" s="41" t="str">
         <f>_xll.qlLiborSwap($F51,Currency,FixingType,$C51,Currency&amp;$D51,Currency&amp;$E51,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIfrFix45Y#0001</v>
+        <v>EurLiborSwapIfrFix45Y#0002</v>
       </c>
       <c r="H51" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G51)</f>
@@ -6123,7 +6123,7 @@
       </c>
       <c r="G52" s="41" t="str">
         <f>_xll.qlLiborSwap($F52,Currency,FixingType,$C52,Currency&amp;$D52,Currency&amp;$E52,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIfrFix46Y#0001</v>
+        <v>EurLiborSwapIfrFix46Y#0002</v>
       </c>
       <c r="H52" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G52)</f>
@@ -6148,7 +6148,7 @@
       </c>
       <c r="G53" s="41" t="str">
         <f>_xll.qlLiborSwap($F53,Currency,FixingType,$C53,Currency&amp;$D53,Currency&amp;$E53,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIfrFix47Y#0001</v>
+        <v>EurLiborSwapIfrFix47Y#0002</v>
       </c>
       <c r="H53" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G53)</f>
@@ -6173,7 +6173,7 @@
       </c>
       <c r="G54" s="41" t="str">
         <f>_xll.qlLiborSwap($F54,Currency,FixingType,$C54,Currency&amp;$D54,Currency&amp;$E54,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIfrFix48Y#0001</v>
+        <v>EurLiborSwapIfrFix48Y#0002</v>
       </c>
       <c r="H54" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G54)</f>
@@ -6198,7 +6198,7 @@
       </c>
       <c r="G55" s="41" t="str">
         <f>_xll.qlLiborSwap($F55,Currency,FixingType,$C55,Currency&amp;$D55,Currency&amp;$E55,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIfrFix49Y#0001</v>
+        <v>EurLiborSwapIfrFix49Y#0002</v>
       </c>
       <c r="H55" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G55)</f>
@@ -6223,7 +6223,7 @@
       </c>
       <c r="G56" s="41" t="str">
         <f>_xll.qlLiborSwap($F56,Currency,FixingType,$C56,Currency&amp;$D56,Currency&amp;$E56,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIfrFix50Y#0001</v>
+        <v>EurLiborSwapIfrFix50Y#0002</v>
       </c>
       <c r="H56" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G56)</f>
@@ -6248,7 +6248,7 @@
       </c>
       <c r="G57" s="41" t="str">
         <f>_xll.qlLiborSwap($F57,Currency,FixingType,$C57,Currency&amp;$D57,Currency&amp;$E57,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIfrFix51Y#0001</v>
+        <v>EurLiborSwapIfrFix51Y#0002</v>
       </c>
       <c r="H57" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G57)</f>
@@ -6273,7 +6273,7 @@
       </c>
       <c r="G58" s="41" t="str">
         <f>_xll.qlLiborSwap($F58,Currency,FixingType,$C58,Currency&amp;$D58,Currency&amp;$E58,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIfrFix52Y#0001</v>
+        <v>EurLiborSwapIfrFix52Y#0002</v>
       </c>
       <c r="H58" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G58)</f>
@@ -6298,7 +6298,7 @@
       </c>
       <c r="G59" s="41" t="str">
         <f>_xll.qlLiborSwap($F59,Currency,FixingType,$C59,Currency&amp;$D59,Currency&amp;$E59,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIfrFix53Y#0001</v>
+        <v>EurLiborSwapIfrFix53Y#0002</v>
       </c>
       <c r="H59" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G59)</f>
@@ -6323,7 +6323,7 @@
       </c>
       <c r="G60" s="41" t="str">
         <f>_xll.qlLiborSwap($F60,Currency,FixingType,$C60,Currency&amp;$D60,Currency&amp;$E60,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIfrFix54Y#0001</v>
+        <v>EurLiborSwapIfrFix54Y#0002</v>
       </c>
       <c r="H60" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G60)</f>
@@ -6348,7 +6348,7 @@
       </c>
       <c r="G61" s="41" t="str">
         <f>_xll.qlLiborSwap($F61,Currency,FixingType,$C61,Currency&amp;$D61,Currency&amp;$E61,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIfrFix55Y#0001</v>
+        <v>EurLiborSwapIfrFix55Y#0002</v>
       </c>
       <c r="H61" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G61)</f>
@@ -6373,7 +6373,7 @@
       </c>
       <c r="G62" s="41" t="str">
         <f>_xll.qlLiborSwap($F62,Currency,FixingType,$C62,Currency&amp;$D62,Currency&amp;$E62,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIfrFix56Y#0001</v>
+        <v>EurLiborSwapIfrFix56Y#0002</v>
       </c>
       <c r="H62" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G62)</f>
@@ -6398,7 +6398,7 @@
       </c>
       <c r="G63" s="41" t="str">
         <f>_xll.qlLiborSwap($F63,Currency,FixingType,$C63,Currency&amp;$D63,Currency&amp;$E63,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIfrFix57Y#0001</v>
+        <v>EurLiborSwapIfrFix57Y#0002</v>
       </c>
       <c r="H63" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G63)</f>
@@ -6423,7 +6423,7 @@
       </c>
       <c r="G64" s="41" t="str">
         <f>_xll.qlLiborSwap($F64,Currency,FixingType,$C64,Currency&amp;$D64,Currency&amp;$E64,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIfrFix58Y#0001</v>
+        <v>EurLiborSwapIfrFix58Y#0002</v>
       </c>
       <c r="H64" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G64)</f>
@@ -6448,7 +6448,7 @@
       </c>
       <c r="G65" s="41" t="str">
         <f>_xll.qlLiborSwap($F65,Currency,FixingType,$C65,Currency&amp;$D65,Currency&amp;$E65,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIfrFix59Y#0001</v>
+        <v>EurLiborSwapIfrFix59Y#0002</v>
       </c>
       <c r="H65" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G65)</f>
@@ -6473,7 +6473,7 @@
       </c>
       <c r="G66" s="41" t="str">
         <f>_xll.qlLiborSwap($F66,Currency,FixingType,$C66,Currency&amp;$D66,Currency&amp;$E66,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EurLiborSwapIfrFix60Y#0001</v>
+        <v>EurLiborSwapIfrFix60Y#0002</v>
       </c>
       <c r="H66" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(G66)</f>
